--- a/Events/ottawa.xlsx
+++ b/Events/ottawa.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jposada/Library/CloudStorage/Dropbox/I4R/AI vertical/Events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338A32D8-B63D-FA40-8D68-2C4A4B5374B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A251BA-E207-8F4A-AE74-06A1546C3FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="28180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="28180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University of Ottawa Replicatio" sheetId="1" r:id="rId1"/>
     <sheet name="Assignments_20241009_103554" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'University of Ottawa Replicatio'!$A$1:$AJ$94</definedName>
@@ -2076,7 +2077,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2087,6 +2088,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2102,7 +2109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2111,6 +2118,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2356,9 +2366,9 @@
   </sheetPr>
   <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="N1" sqref="N1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4563,113 +4573,113 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
+    <row r="21" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6">
         <v>110019988168</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="7">
         <v>45922.217245370368</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="7">
         <v>45922.218715277777</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <v>127</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="2">
+      <c r="G21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="6">
         <v>270474947</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="P21" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="R21" s="2" t="s">
+      <c r="R21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="S21" s="2" t="s">
+      <c r="S21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="U21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V21" s="2" t="s">
+      <c r="V21" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="W21" s="2" t="s">
+      <c r="W21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="X21" s="2">
+      <c r="X21" s="6">
         <v>15</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Y21" s="6">
         <v>66</v>
       </c>
-      <c r="Z21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI21" s="2" t="s">
+      <c r="Z21" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="AJ21" s="2" t="s">
+      <c r="AJ21" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -10283,113 +10293,113 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.15">
-      <c r="A73" s="2">
+    <row r="73" spans="1:36" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6">
         <v>110020032249</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="7">
         <v>45926.915625000001</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73" s="7">
         <v>45926.917210648149</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="E73" s="2">
+      <c r="E73" s="6">
         <v>136</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J73" s="2">
+      <c r="G73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J73" s="6">
         <v>270474947</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M73" s="2" t="s">
+      <c r="L73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="N73" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="O73" s="2" t="s">
+      <c r="O73" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="P73" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="Q73" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R73" s="2" t="s">
+      <c r="R73" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="S73" s="2" t="s">
+      <c r="S73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="T73" s="2" t="s">
+      <c r="T73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="U73" s="2" t="s">
+      <c r="U73" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="V73" s="2" t="s">
+      <c r="V73" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="W73" s="2" t="s">
+      <c r="W73" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="X73" s="2">
+      <c r="X73" s="6">
         <v>3</v>
       </c>
-      <c r="Y73" s="2">
+      <c r="Y73" s="6">
         <v>100</v>
       </c>
-      <c r="Z73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI73" s="2" t="s">
+      <c r="Z73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI73" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="AJ73" s="2" t="s">
+      <c r="AJ73" s="6" t="s">
         <v>38</v>
       </c>
     </row>
@@ -12714,7 +12724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -17195,4 +17205,16 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4DCD68-A613-4A4C-B27A-EB5AE3F5F874}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Events/ottawa.xlsx
+++ b/Events/ottawa.xlsx
@@ -1,749 +1,757 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jposada/Library/CloudStorage/Dropbox/I4R/AI vertical/Events/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B95876D5-8CA8-184A-9BB9-66BBC105B8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="28180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="University of Ottawa Replicatio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="University of Ottawa Replicatio" sheetId="1" r:id="rId1"/>
     <sheet name="Assignments_20241009" sheetId="3" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="804">
-  <si>
-    <t xml:space="preserve">event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">response_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">participant_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">participant_email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tier_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary_discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatment_arm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">discipline_alignment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">out_of_discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper_discipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">paper_url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomization_seed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">randomization_timestamp_utc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ottawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georges Rigas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">griga045@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Graduate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AI-Assisted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Evolution of Local Labor Markets After Recessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AEJ: Applied Economics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.openicpsr.org/openicpsr/project/184022/version/V1/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2025-10-09 17:44:14 UTC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamidreza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hamidrezaahmadi@cmail.carleton.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Human-Only</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Impacts Can We Expect from School Spending Policy? Evidence from Evaluations in the United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.openicpsr.org/openicpsr/project/182042/version/V1/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jiaqing Fan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fan.jiaqing@courrier.uqam.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outside</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Participation and Constitutional Compliance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AJPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.7910/DVN/FPXUW5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan Esuola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jesuola1234@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Willingness to Pay for a Cooler Day: Evidence from 50 Years of Major League Baseball Games</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.openicpsr.org/openicpsr/project/192427/version/V1/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lau Jimenez Bracho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maria.jimenezbracho@mail.mcgill.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Better Alone? Evidence on the Costs of Intermunicipal Cooperation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.openicpsr.org/openicpsr/project/195864/version/V1/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Mattiussi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmatt095@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contactless Real‑Time Heart Rate Predicts the Performance of Elite Athletes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychological Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/32jsy/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matthew Blair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20mgb5@queensu.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impaired and Spared Auditory Category Learning in Developmental Dyslexia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.17605/OSF.IO/8QC24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mouhamadou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected Returns to Crime and Crime Location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.openicpsr.org/openicpsr/project/190941/version/V1/view</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Najia Nasim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">najianasim@cmail.carleton.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noura Sylla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsyll103@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">René Kabore</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kabore.rene@courrier.uqam.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riyan Arefin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">riyanarefin@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universal Constraints on Linguistic Event Categories: A Cross‑Cultural Study of Child Homesign</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/jmv94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agyekum,louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lagye013@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expertise Acquisition in Congress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/VPPEAW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdou-Moumouni Idissou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idissou.abdou-moumouni@courrier.uqam.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PhD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aline Zayat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">azaya096@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biased bureaucrats and the policies of international organizations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/IPGCTN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna Schütze (Anna Schuetze)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anna.schuetze@tu-dresden.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chen Li</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cli271@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hamed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hagha092@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hayoung Jo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hjo085@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayla Xiao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bxiao076@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klára Kantová</t>
-  </si>
-  <si>
-    <t xml:space="preserve">klara.kantova@fsv.cuni.cz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kwasi Tabiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kwasitabiri@cmail.carleton.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mahmoudou Alioum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmahm019@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martina Lušková</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martina.luskova@fsv.cuni.cz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathis Preti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mathis.preti@univ-amu.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengxi He</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mhe105@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noah Sidoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nsido047@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rainier de la Cruz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rdela020@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salma Ben Messaoud</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sbenm025@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sevda Hasanli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shasanli@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thuy (Casey) Nguyen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tnguy046@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tran Hoang Phuong Linh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thphuonglinh.97@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trang Dong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trang.dong@uhasselt.be</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Victor Okoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">victor.ok.ca@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Impact of Implicit‑Bias‑Oriented Diversity Training on Police Officers’ Beliefs, Motivations, and Actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://osf.io/vfdrt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xiaoyu Sun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xsun052@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziyi Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ziyi.yang4@mail.mcgill.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d'Avila Kponou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kponou.dossi_senan_celia_d_avila@courrier.uqam.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Rujano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">xalerujano@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Postdoc/Researcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor/Researcher</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrea Dsouza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andrea.dsouza@ferdi.fr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franz Prante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">franz.prante@wiwi.tu-chemnitz.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin Queißner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martin.queissner@zu.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexandra Jabbour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alexandra.jabbour@warwick.ac.uk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Binyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">demena@iss.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christian Westheide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">christian.westheide@sbs.su.se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Development of Spatial Cognition and Its Malleability Assessed in Mass Population via a Mobile Game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/shan0903/ThreePiglet2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colin Mang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">colinmang@mcmaster.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cong Xu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">108257504@nccu.edu.tw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan Tran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dtran@ucp.pt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidon Fenig</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gfenig@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heiko Rachinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heiko.rachinger@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jost Sieweke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">j.sieweke@vu.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ryan Briggs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rbriggs@uoguelph.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastian Gechert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sebastian.gechert@wiwi.tu-chemnitz.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shinichi Nakagawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">snakagaw@ualberta.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taisuke Imai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taisuke.imai@iser.osaka-u.ac.jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomas Havranek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t.havranek@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vincent Arel-Bundock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vincent.arel-bundock@umontreal.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Spatial Rogowski Theory of America’s 19th‑Century Protectionism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://doi.org/10.7910/DVN/PLKWUL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">patrick davidson</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pdavidso@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abdoul Aziz Diaw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adiaw032@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undergraduate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aissata</t>
-  </si>
-  <si>
-    <t xml:space="preserve">awalb009@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alexis Tassé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">alexis.tasse@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amine El Idrissi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aelid040@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aymane Alaoui Mdaghri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aalao027@uottaw.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaïda Ngaminungu Manzombi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmanz081@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dan Ngenzi Ya Ruty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dngen075@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ddegr099@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djessouti Danis Hossou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dhoss051@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmanuella Amidu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">emmanuellaamidu@cmail.carleton.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fejiro Mejire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">omeji096@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franck Stephanas Leugue Pabou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fleug059@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghita Belmouh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gbelm009@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Yang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jyang293@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalidou Sambou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ksamb038@uottawa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kodjo Boris Decker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kodjoborisdecker@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamine M sacko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lsack043@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lee Noumi U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lnoum020@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lê Vu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lvu063@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marc-Olivier Beaulne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mbeau288@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marufa Monir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">monirmarufa09@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mehdi Bibi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mehdi.bibi93@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meleme Gerardine Metch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmetc104@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melvin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mnzab070@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kmois005@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murad Lila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mebra031@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Murewa Akorede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">takor104@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigué Cissé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nciss017@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oren Yameogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oyame104@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remi Royer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rroye038@uottawa.ca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typhen Ouedraogo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toued013@uottawa.ca</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3914" uniqueCount="241">
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>response_id</t>
+  </si>
+  <si>
+    <t>participant_name</t>
+  </si>
+  <si>
+    <t>participant_email</t>
+  </si>
+  <si>
+    <t>tier</t>
+  </si>
+  <si>
+    <t>tier_2</t>
+  </si>
+  <si>
+    <t>primary_discipline</t>
+  </si>
+  <si>
+    <t>treatment_arm</t>
+  </si>
+  <si>
+    <t>discipline_alignment</t>
+  </si>
+  <si>
+    <t>out_of_discipline</t>
+  </si>
+  <si>
+    <t>paper_title</t>
+  </si>
+  <si>
+    <t>paper_discipline</t>
+  </si>
+  <si>
+    <t>Journal</t>
+  </si>
+  <si>
+    <t>paper_url</t>
+  </si>
+  <si>
+    <t>randomization_seed</t>
+  </si>
+  <si>
+    <t>randomization_timestamp_utc</t>
+  </si>
+  <si>
+    <t>ottawa</t>
+  </si>
+  <si>
+    <t>Georges Rigas</t>
+  </si>
+  <si>
+    <t>griga045@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Master's</t>
+  </si>
+  <si>
+    <t>Graduate</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>AI-Assisted</t>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>The Evolution of Local Labor Markets After Recessions</t>
+  </si>
+  <si>
+    <t>AEJ: Applied Economics</t>
+  </si>
+  <si>
+    <t>https://www.openicpsr.org/openicpsr/project/184022/version/V1/view</t>
+  </si>
+  <si>
+    <t>2025-10-09 17:44:14 UTC</t>
+  </si>
+  <si>
+    <t>Hamidreza</t>
+  </si>
+  <si>
+    <t>hamidrezaahmadi@cmail.carleton.ca</t>
+  </si>
+  <si>
+    <t>Human-Only</t>
+  </si>
+  <si>
+    <t>What Impacts Can We Expect from School Spending Policy? Evidence from Evaluations in the United States</t>
+  </si>
+  <si>
+    <t>https://www.openicpsr.org/openicpsr/project/182042/version/V1/view</t>
+  </si>
+  <si>
+    <t>Jiaqing Fan</t>
+  </si>
+  <si>
+    <t>fan.jiaqing@courrier.uqam.ca</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Public Participation and Constitutional Compliance</t>
+  </si>
+  <si>
+    <t>Political Science</t>
+  </si>
+  <si>
+    <t>AJPS</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7910/DVN/FPXUW5</t>
+  </si>
+  <si>
+    <t>Jonathan Esuola</t>
+  </si>
+  <si>
+    <t>jesuola1234@gmail.com</t>
+  </si>
+  <si>
+    <t>The Willingness to Pay for a Cooler Day: Evidence from 50 Years of Major League Baseball Games</t>
+  </si>
+  <si>
+    <t>https://www.openicpsr.org/openicpsr/project/192427/version/V1/view</t>
+  </si>
+  <si>
+    <t>Lau Jimenez Bracho</t>
+  </si>
+  <si>
+    <t>maria.jimenezbracho@mail.mcgill.ca</t>
+  </si>
+  <si>
+    <t>Better Alone? Evidence on the Costs of Intermunicipal Cooperation</t>
+  </si>
+  <si>
+    <t>https://www.openicpsr.org/openicpsr/project/195864/version/V1/view</t>
+  </si>
+  <si>
+    <t>Marco Mattiussi</t>
+  </si>
+  <si>
+    <t>mmatt095@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Contactless Real‑Time Heart Rate Predicts the Performance of Elite Athletes</t>
+  </si>
+  <si>
+    <t>Psychology</t>
+  </si>
+  <si>
+    <t>Psychological Science</t>
+  </si>
+  <si>
+    <t>https://osf.io/32jsy/</t>
+  </si>
+  <si>
+    <t>Matthew Blair</t>
+  </si>
+  <si>
+    <t>20mgb5@queensu.ca</t>
+  </si>
+  <si>
+    <t>Impaired and Spared Auditory Category Learning in Developmental Dyslexia</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.17605/OSF.IO/8QC24</t>
+  </si>
+  <si>
+    <t>Mouhamadou</t>
+  </si>
+  <si>
+    <t>diop</t>
+  </si>
+  <si>
+    <t>Expected Returns to Crime and Crime Location</t>
+  </si>
+  <si>
+    <t>https://www.openicpsr.org/openicpsr/project/190941/version/V1/view</t>
+  </si>
+  <si>
+    <t>Najia Nasim</t>
+  </si>
+  <si>
+    <t>najianasim@cmail.carleton.ca</t>
+  </si>
+  <si>
+    <t>Noura Sylla</t>
+  </si>
+  <si>
+    <t>nsyll103@uottawa.ca</t>
+  </si>
+  <si>
+    <t>René Kabore</t>
+  </si>
+  <si>
+    <t>kabore.rene@courrier.uqam.ca</t>
+  </si>
+  <si>
+    <t>Riyan Arefin</t>
+  </si>
+  <si>
+    <t>riyanarefin@gmail.com</t>
+  </si>
+  <si>
+    <t>Universal Constraints on Linguistic Event Categories: A Cross‑Cultural Study of Child Homesign</t>
+  </si>
+  <si>
+    <t>https://osf.io/jmv94</t>
+  </si>
+  <si>
+    <t>agyekum,louis</t>
+  </si>
+  <si>
+    <t>lagye013@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Expertise Acquisition in Congress</t>
+  </si>
+  <si>
+    <t>https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/VPPEAW</t>
+  </si>
+  <si>
+    <t>Abdou-Moumouni Idissou</t>
+  </si>
+  <si>
+    <t>idissou.abdou-moumouni@courrier.uqam.ca</t>
+  </si>
+  <si>
+    <t>PhD</t>
+  </si>
+  <si>
+    <t>Aline Zayat</t>
+  </si>
+  <si>
+    <t>azaya096@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Biased bureaucrats and the policies of international organizations</t>
+  </si>
+  <si>
+    <t>https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/IPGCTN</t>
+  </si>
+  <si>
+    <t>Anna Schütze (Anna Schuetze)</t>
+  </si>
+  <si>
+    <t>anna.schuetze@tu-dresden.de</t>
+  </si>
+  <si>
+    <t>Chen Li</t>
+  </si>
+  <si>
+    <t>cli271@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Hamed</t>
+  </si>
+  <si>
+    <t>hagha092@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Hayoung Jo</t>
+  </si>
+  <si>
+    <t>hjo085@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Kayla Xiao</t>
+  </si>
+  <si>
+    <t>bxiao076@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Klára Kantová</t>
+  </si>
+  <si>
+    <t>klara.kantova@fsv.cuni.cz</t>
+  </si>
+  <si>
+    <t>Kwasi Tabiri</t>
+  </si>
+  <si>
+    <t>kwasitabiri@cmail.carleton.ca</t>
+  </si>
+  <si>
+    <t>Mahmoudou Alioum</t>
+  </si>
+  <si>
+    <t>mmahm019@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Martina Lušková</t>
+  </si>
+  <si>
+    <t>martina.luskova@fsv.cuni.cz</t>
+  </si>
+  <si>
+    <t>Mathis Preti</t>
+  </si>
+  <si>
+    <t>mathis.preti@univ-amu.fr</t>
+  </si>
+  <si>
+    <t>Mengxi He</t>
+  </si>
+  <si>
+    <t>mhe105@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Noah Sidoli</t>
+  </si>
+  <si>
+    <t>nsido047@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Rainier de la Cruz</t>
+  </si>
+  <si>
+    <t>rdela020@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Salma Ben Messaoud</t>
+  </si>
+  <si>
+    <t>sbenm025@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Sevda Hasanli</t>
+  </si>
+  <si>
+    <t>shasanli@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Thuy (Casey) Nguyen</t>
+  </si>
+  <si>
+    <t>tnguy046@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Tran Hoang Phuong Linh</t>
+  </si>
+  <si>
+    <t>thphuonglinh.97@gmail.com</t>
+  </si>
+  <si>
+    <t>Trang Dong</t>
+  </si>
+  <si>
+    <t>trang.dong@uhasselt.be</t>
+  </si>
+  <si>
+    <t>Victor Okoro</t>
+  </si>
+  <si>
+    <t>victor.ok.ca@gmail.com</t>
+  </si>
+  <si>
+    <t>The Impact of Implicit‑Bias‑Oriented Diversity Training on Police Officers’ Beliefs, Motivations, and Actions</t>
+  </si>
+  <si>
+    <t>https://osf.io/vfdrt/</t>
+  </si>
+  <si>
+    <t>Xiaoyu Sun</t>
+  </si>
+  <si>
+    <t>xsun052@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Ziyi Yang</t>
+  </si>
+  <si>
+    <t>ziyi.yang4@mail.mcgill.ca</t>
+  </si>
+  <si>
+    <t>d'Avila Kponou</t>
+  </si>
+  <si>
+    <t>kponou.dossi_senan_celia_d_avila@courrier.uqam.ca</t>
+  </si>
+  <si>
+    <t>Alejandro Rujano</t>
+  </si>
+  <si>
+    <t>xalerujano@gmail.com</t>
+  </si>
+  <si>
+    <t>Postdoc/Researcher</t>
+  </si>
+  <si>
+    <t>Professor/Researcher</t>
+  </si>
+  <si>
+    <t>Andrea Dsouza</t>
+  </si>
+  <si>
+    <t>andrea.dsouza@ferdi.fr</t>
+  </si>
+  <si>
+    <t>Franz Prante</t>
+  </si>
+  <si>
+    <t>franz.prante@wiwi.tu-chemnitz.de</t>
+  </si>
+  <si>
+    <t>Martin Queißner</t>
+  </si>
+  <si>
+    <t>martin.queissner@zu.de</t>
+  </si>
+  <si>
+    <t>Alexandra Jabbour</t>
+  </si>
+  <si>
+    <t>alexandra.jabbour@warwick.ac.uk</t>
+  </si>
+  <si>
+    <t>Professor</t>
+  </si>
+  <si>
+    <t>Binyam</t>
+  </si>
+  <si>
+    <t>demena@iss.nl</t>
+  </si>
+  <si>
+    <t>Christian Westheide</t>
+  </si>
+  <si>
+    <t>christian.westheide@sbs.su.se</t>
+  </si>
+  <si>
+    <t>The Development of Spatial Cognition and Its Malleability Assessed in Mass Population via a Mobile Game</t>
+  </si>
+  <si>
+    <t>https://github.com/shan0903/ThreePiglet2022</t>
+  </si>
+  <si>
+    <t>Colin Mang</t>
+  </si>
+  <si>
+    <t>colinmang@mcmaster.ca</t>
+  </si>
+  <si>
+    <t>Cong Xu</t>
+  </si>
+  <si>
+    <t>108257504@nccu.edu.tw</t>
+  </si>
+  <si>
+    <t>Dan Tran</t>
+  </si>
+  <si>
+    <t>dtran@ucp.pt</t>
+  </si>
+  <si>
+    <t>Guidon Fenig</t>
+  </si>
+  <si>
+    <t>gfenig@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Heiko Rachinger</t>
+  </si>
+  <si>
+    <t>heiko.rachinger@gmail.com</t>
+  </si>
+  <si>
+    <t>Jost Sieweke</t>
+  </si>
+  <si>
+    <t>j.sieweke@vu.nl</t>
+  </si>
+  <si>
+    <t>Ryan Briggs</t>
+  </si>
+  <si>
+    <t>rbriggs@uoguelph.ca</t>
+  </si>
+  <si>
+    <t>Sebastian Gechert</t>
+  </si>
+  <si>
+    <t>sebastian.gechert@wiwi.tu-chemnitz.de</t>
+  </si>
+  <si>
+    <t>Shinichi Nakagawa</t>
+  </si>
+  <si>
+    <t>snakagaw@ualberta.ca</t>
+  </si>
+  <si>
+    <t>Taisuke Imai</t>
+  </si>
+  <si>
+    <t>taisuke.imai@iser.osaka-u.ac.jp</t>
+  </si>
+  <si>
+    <t>Tomas Havranek</t>
+  </si>
+  <si>
+    <t>t.havranek@gmail.com</t>
+  </si>
+  <si>
+    <t>Vincent Arel-Bundock</t>
+  </si>
+  <si>
+    <t>vincent.arel-bundock@umontreal.ca</t>
+  </si>
+  <si>
+    <t>A Spatial Rogowski Theory of America’s 19th‑Century Protectionism</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.7910/DVN/PLKWUL</t>
+  </si>
+  <si>
+    <t>patrick davidson</t>
+  </si>
+  <si>
+    <t>pdavidso@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Abdoul Aziz Diaw</t>
+  </si>
+  <si>
+    <t>adiaw032@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Aissata</t>
+  </si>
+  <si>
+    <t>awalb009@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Alexis Tassé</t>
+  </si>
+  <si>
+    <t>alexis.tasse@hotmail.com</t>
+  </si>
+  <si>
+    <t>Amine El Idrissi</t>
+  </si>
+  <si>
+    <t>aelid040@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Aymane Alaoui Mdaghri</t>
+  </si>
+  <si>
+    <t>aalao027@uottaw.ca</t>
+  </si>
+  <si>
+    <t>Chaïda Ngaminungu Manzombi</t>
+  </si>
+  <si>
+    <t>cmanz081@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Dan Ngenzi Ya Ruty</t>
+  </si>
+  <si>
+    <t>dngen075@uottawa.ca</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>ddegr099@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Djessouti Danis Hossou</t>
+  </si>
+  <si>
+    <t>dhoss051@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Emmanuella Amidu</t>
+  </si>
+  <si>
+    <t>emmanuellaamidu@cmail.carleton.ca</t>
+  </si>
+  <si>
+    <t>Fejiro Mejire</t>
+  </si>
+  <si>
+    <t>omeji096@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Franck Stephanas Leugue Pabou</t>
+  </si>
+  <si>
+    <t>fleug059@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Ghita Belmouh</t>
+  </si>
+  <si>
+    <t>gbelm009@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Jason Yang</t>
+  </si>
+  <si>
+    <t>jyang293@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Kalidou Sambou</t>
+  </si>
+  <si>
+    <t>ksamb038@uottawa</t>
+  </si>
+  <si>
+    <t>Kodjo Boris Decker</t>
+  </si>
+  <si>
+    <t>kodjoborisdecker@gmail.com</t>
+  </si>
+  <si>
+    <t>Lamine M sacko</t>
+  </si>
+  <si>
+    <t>lsack043@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Lee Noumi U</t>
+  </si>
+  <si>
+    <t>lnoum020@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Lê Vu</t>
+  </si>
+  <si>
+    <t>lvu063@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Marc-Olivier Beaulne</t>
+  </si>
+  <si>
+    <t>mbeau288@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Marufa Monir</t>
+  </si>
+  <si>
+    <t>monirmarufa09@gmail.com</t>
+  </si>
+  <si>
+    <t>Mehdi Bibi</t>
+  </si>
+  <si>
+    <t>mehdi.bibi93@gmail.com</t>
+  </si>
+  <si>
+    <t>Meleme Gerardine Metch</t>
+  </si>
+  <si>
+    <t>mmetc104@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>mnzab070@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Moise</t>
+  </si>
+  <si>
+    <t>kmois005@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Murad Lila</t>
+  </si>
+  <si>
+    <t>mebra031@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Murewa Akorede</t>
+  </si>
+  <si>
+    <t>takor104@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Navigué Cissé</t>
+  </si>
+  <si>
+    <t>nciss017@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Oren Yameogo</t>
+  </si>
+  <si>
+    <t>oyame104@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Remi Royer</t>
+  </si>
+  <si>
+    <t>rroye038@uottawa.ca</t>
+  </si>
+  <si>
+    <t>Typhen Ouedraogo</t>
+  </si>
+  <si>
+    <t>toued013@uottawa.ca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -779,74 +787,83 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:AJ94" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:AJ94"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:AJ94" totalsRowShown="0">
+  <autoFilter ref="A1:AJ94" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="36">
-    <tableColumn id="1" name="Response.ID"/>
-    <tableColumn id="2" name="Date.Created"/>
-    <tableColumn id="3" name="Date.Modified"/>
-    <tableColumn id="4" name="IP.Address"/>
-    <tableColumn id="5" name="Duration.(sec)"/>
-    <tableColumn id="6" name="Response.Status"/>
-    <tableColumn id="7" name="Email"/>
-    <tableColumn id="8" name="First.Name"/>
-    <tableColumn id="9" name="Last.Name"/>
-    <tableColumn id="10" name="Collector.ID"/>
-    <tableColumn id="11" name="Collector.Type"/>
-    <tableColumn id="12" name="Custom.Value"/>
-    <tableColumn id="13" name="Would.you.like.to.participate.in.I4R's.Replication.Games.on.October.16th,.2025?"/>
-    <tableColumn id="14" name="What.is.your.name?"/>
-    <tableColumn id="15" name="What.is.your.email.address?"/>
-    <tableColumn id="16" name="Do.you.plan.on.attending.the.Replication.Games.in-person.or.virtually?"/>
-    <tableColumn id="17" name="What.is.your.affiliation.(university,.institution,.business,.etc.)?"/>
-    <tableColumn id="18" name="Which.best.describes.your.current.position"/>
-    <tableColumn id="19" name="Please.describe.your.skill.level.with.the.following.software:.|.Python"/>
-    <tableColumn id="20" name="Please.describe.your.skill.level.with.the.following.software:.|.R"/>
-    <tableColumn id="21" name="Please.describe.your.skill.level.with.the.following.software:.|.Stata"/>
-    <tableColumn id="22" name="Please.describe.your.skill.level.with.the.following.software:.|.Matlab"/>
-    <tableColumn id="23" name="Please.describe.your.skill.level.with.the.following.software:.|.ChatGPT"/>
-    <tableColumn id="24" name="How.many.years.of.coding.experience.do.you.have?"/>
-    <tableColumn id="25" name="In.your.work.life,.how.often.do.you.use.AI.chatbots.and.other.generative.AI.tools?"/>
-    <tableColumn id="26" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.ChatGPT"/>
-    <tableColumn id="27" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Notebook.LM"/>
-    <tableColumn id="28" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Claude"/>
-    <tableColumn id="29" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.GitHub.Copilot"/>
-    <tableColumn id="30" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Copilot.(Microsoft)"/>
-    <tableColumn id="31" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Gemini"/>
-    <tableColumn id="32" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.DeepSeek"/>
-    <tableColumn id="33" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Perplexity"/>
-    <tableColumn id="34" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Other.(please.specify)"/>
-    <tableColumn id="35" name="What.is.your.academic.discipline?"/>
-    <tableColumn id="36" name="Please.let.us.know.if.you.have.any.dietary.restrictions,.allergies,.or.preferences."/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Response.ID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Date.Created"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date.Modified"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="IP.Address"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Duration.(sec)"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Response.Status"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Email"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="First.Name"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Last.Name"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Collector.ID"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Collector.Type"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Custom.Value"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Would.you.like.to.participate.in.I4R's.Replication.Games.on.October.16th,.2025?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="What.is.your.name?"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="What.is.your.email.address?"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Do.you.plan.on.attending.the.Replication.Games.in-person.or.virtually?"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="What.is.your.affiliation.(university,.institution,.business,.etc.)?"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="Which.best.describes.your.current.position"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Please.describe.your.skill.level.with.the.following.software:.|.Python"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Please.describe.your.skill.level.with.the.following.software:.|.R"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Please.describe.your.skill.level.with.the.following.software:.|.Stata"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="Please.describe.your.skill.level.with.the.following.software:.|.Matlab"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Please.describe.your.skill.level.with.the.following.software:.|.ChatGPT"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="How.many.years.of.coding.experience.do.you.have?"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="In.your.work.life,.how.often.do.you.use.AI.chatbots.and.other.generative.AI.tools?"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.ChatGPT"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Notebook.LM"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Claude"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.GitHub.Copilot"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Copilot.(Microsoft)"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Gemini"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.DeepSeek"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Perplexity"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Which.generative.AI.tools.do.you.commonly.use.for.your.work.or.studies?.|.Other.(please.specify)"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="What.is.your.academic.discipline?"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Please.let.us.know.if.you.have.any.dietary.restrictions,.allergies,.or.preferences."/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:P89" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:P89"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table5" displayName="Table5" ref="A1:P89" totalsRowShown="0">
+  <autoFilter ref="A1:P89" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="16">
-    <tableColumn id="1" name="event"/>
-    <tableColumn id="2" name="response_id"/>
-    <tableColumn id="3" name="participant_name"/>
-    <tableColumn id="4" name="participant_email"/>
-    <tableColumn id="5" name="tier"/>
-    <tableColumn id="6" name="tier_2"/>
-    <tableColumn id="7" name="primary_discipline"/>
-    <tableColumn id="8" name="treatment_arm"/>
-    <tableColumn id="9" name="discipline_alignment"/>
-    <tableColumn id="10" name="out_of_discipline"/>
-    <tableColumn id="11" name="paper_title"/>
-    <tableColumn id="12" name="paper_discipline"/>
-    <tableColumn id="13" name="Journal"/>
-    <tableColumn id="14" name="paper_url"/>
-    <tableColumn id="15" name="randomization_seed"/>
-    <tableColumn id="16" name="randomization_timestamp_utc"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="event"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="response_id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="participant_name"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="participant_email"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="tier"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="tier_2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="primary_discipline"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="treatment_arm"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="discipline_alignment"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="out_of_discipline"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="paper_title"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="paper_discipline"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Journal"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="paper_url"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="randomization_seed"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="randomization_timestamp_utc"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1130,14 +1147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ94"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1247,20 +1264,20 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>110019947998</v>
       </c>
-      <c r="B2" t="n">
-        <v>45916.4439814815</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45916.4451273148</v>
+      <c r="B2">
+        <v>45916.443981481498</v>
+      </c>
+      <c r="C2">
+        <v>45916.445127314801</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>98</v>
       </c>
       <c r="F2" t="s">
@@ -1275,7 +1292,7 @@
       <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>270474947</v>
       </c>
       <c r="K2" t="s">
@@ -1357,20 +1374,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>110019948022</v>
       </c>
-      <c r="B3" t="n">
-        <v>45916.4455439815</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3">
+        <v>45916.445543981499</v>
+      </c>
+      <c r="C3">
         <v>45916.4463888889</v>
       </c>
       <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>73</v>
       </c>
       <c r="F3" t="s">
@@ -1385,7 +1402,7 @@
       <c r="I3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>270474947</v>
       </c>
       <c r="K3" t="s">
@@ -1467,20 +1484,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>110019948156</v>
       </c>
-      <c r="B4" t="n">
-        <v>45916.4533217593</v>
-      </c>
-      <c r="C4" t="n">
-        <v>45916.4547222222</v>
+      <c r="B4">
+        <v>45916.453321759298</v>
+      </c>
+      <c r="C4">
+        <v>45916.454722222203</v>
       </c>
       <c r="D4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>120</v>
       </c>
       <c r="F4" t="s">
@@ -1495,7 +1512,7 @@
       <c r="I4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>270474947</v>
       </c>
       <c r="K4" t="s">
@@ -1577,20 +1594,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>110019949506</v>
       </c>
-      <c r="B5" t="n">
-        <v>45916.5099421296</v>
-      </c>
-      <c r="C5" t="n">
-        <v>45916.5127199074</v>
+      <c r="B5">
+        <v>45916.509942129604</v>
+      </c>
+      <c r="C5">
+        <v>45916.512719907398</v>
       </c>
       <c r="D5" t="s">
         <v>74</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>239</v>
       </c>
       <c r="F5" t="s">
@@ -1605,7 +1622,7 @@
       <c r="I5" t="s">
         <v>38</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>270474947</v>
       </c>
       <c r="K5" t="s">
@@ -1687,20 +1704,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>110019951512</v>
       </c>
-      <c r="B6" t="n">
-        <v>45916.6085300926</v>
-      </c>
-      <c r="C6" t="n">
-        <v>45916.6102662037</v>
+      <c r="B6">
+        <v>45916.608530092599</v>
+      </c>
+      <c r="C6">
+        <v>45916.610266203701</v>
       </c>
       <c r="D6" t="s">
         <v>81</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>150</v>
       </c>
       <c r="F6" t="s">
@@ -1715,7 +1732,7 @@
       <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>270474947</v>
       </c>
       <c r="K6" t="s">
@@ -1797,20 +1814,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>110019952956</v>
       </c>
-      <c r="B7" t="n">
-        <v>45916.6966087963</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7">
+        <v>45916.696608796301</v>
+      </c>
+      <c r="C7">
         <v>45916.7430439815</v>
       </c>
       <c r="D7" t="s">
         <v>88</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>4011</v>
       </c>
       <c r="F7" t="s">
@@ -1825,7 +1842,7 @@
       <c r="I7" t="s">
         <v>38</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>270474947</v>
       </c>
       <c r="K7" t="s">
@@ -1907,20 +1924,20 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>110019954001</v>
       </c>
-      <c r="B8" t="n">
-        <v>45916.9277199074</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8">
+        <v>45916.927719907399</v>
+      </c>
+      <c r="C8">
         <v>45916.9347569444</v>
       </c>
       <c r="D8" t="s">
         <v>96</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>608</v>
       </c>
       <c r="F8" t="s">
@@ -1935,7 +1952,7 @@
       <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J8">
         <v>270474947</v>
       </c>
       <c r="K8" t="s">
@@ -2017,20 +2034,20 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>110019954121</v>
       </c>
-      <c r="B9" t="n">
-        <v>45916.998275463</v>
-      </c>
-      <c r="C9" t="n">
-        <v>45917.007025463</v>
+      <c r="B9">
+        <v>45916.998275462996</v>
+      </c>
+      <c r="C9">
+        <v>45917.007025462997</v>
       </c>
       <c r="D9" t="s">
         <v>104</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>755</v>
       </c>
       <c r="F9" t="s">
@@ -2045,7 +2062,7 @@
       <c r="I9" t="s">
         <v>38</v>
       </c>
-      <c r="J9" t="n">
+      <c r="J9">
         <v>270474947</v>
       </c>
       <c r="K9" t="s">
@@ -2127,20 +2144,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>110019963602</v>
       </c>
-      <c r="B10" t="n">
-        <v>45918.292337963</v>
-      </c>
-      <c r="C10" t="n">
-        <v>45918.2940972222</v>
+      <c r="B10">
+        <v>45918.292337963001</v>
+      </c>
+      <c r="C10">
+        <v>45918.294097222199</v>
       </c>
       <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>152</v>
       </c>
       <c r="F10" t="s">
@@ -2155,7 +2172,7 @@
       <c r="I10" t="s">
         <v>38</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J10">
         <v>270474947</v>
       </c>
       <c r="K10" t="s">
@@ -2237,20 +2254,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>110019963610</v>
       </c>
-      <c r="B11" t="n">
-        <v>45918.2928935185</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>45918.292893518497</v>
+      </c>
+      <c r="C11">
         <v>45918.2946296296</v>
       </c>
       <c r="D11" t="s">
         <v>113</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>150</v>
       </c>
       <c r="F11" t="s">
@@ -2265,7 +2282,7 @@
       <c r="I11" t="s">
         <v>38</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J11">
         <v>270474947</v>
       </c>
       <c r="K11" t="s">
@@ -2347,20 +2364,20 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>110019964500</v>
       </c>
-      <c r="B12" t="n">
-        <v>45918.3610300926</v>
-      </c>
-      <c r="C12" t="n">
-        <v>45918.3633333333</v>
+      <c r="B12">
+        <v>45918.361030092601</v>
+      </c>
+      <c r="C12">
+        <v>45918.363333333298</v>
       </c>
       <c r="D12" t="s">
         <v>118</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>198</v>
       </c>
       <c r="F12" t="s">
@@ -2375,7 +2392,7 @@
       <c r="I12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J12">
         <v>270474947</v>
       </c>
       <c r="K12" t="s">
@@ -2457,20 +2474,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>110019965122</v>
       </c>
-      <c r="B13" t="n">
-        <v>45918.4144444444</v>
-      </c>
-      <c r="C13" t="n">
-        <v>45918.4151967593</v>
+      <c r="B13">
+        <v>45918.414444444403</v>
+      </c>
+      <c r="C13">
+        <v>45918.415196759299</v>
       </c>
       <c r="D13" t="s">
         <v>123</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>65</v>
       </c>
       <c r="F13" t="s">
@@ -2485,7 +2502,7 @@
       <c r="I13" t="s">
         <v>38</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J13">
         <v>270474947</v>
       </c>
       <c r="K13" t="s">
@@ -2567,20 +2584,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>110019965221</v>
       </c>
-      <c r="B14" t="n">
-        <v>45918.4208564815</v>
-      </c>
-      <c r="C14" t="n">
-        <v>45918.4227893519</v>
+      <c r="B14">
+        <v>45918.420856481498</v>
+      </c>
+      <c r="C14">
+        <v>45918.422789351898</v>
       </c>
       <c r="D14" t="s">
         <v>127</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>167</v>
       </c>
       <c r="F14" t="s">
@@ -2595,7 +2612,7 @@
       <c r="I14" t="s">
         <v>38</v>
       </c>
-      <c r="J14" t="n">
+      <c r="J14">
         <v>270474947</v>
       </c>
       <c r="K14" t="s">
@@ -2677,20 +2694,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>110019965438</v>
       </c>
-      <c r="B15" t="n">
-        <v>45918.4359953704</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15">
+        <v>45918.435995370397</v>
+      </c>
+      <c r="C15">
         <v>45918.4374074074</v>
       </c>
       <c r="D15" t="s">
         <v>132</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>122</v>
       </c>
       <c r="F15" t="s">
@@ -2705,7 +2722,7 @@
       <c r="I15" t="s">
         <v>38</v>
       </c>
-      <c r="J15" t="n">
+      <c r="J15">
         <v>270474947</v>
       </c>
       <c r="K15" t="s">
@@ -2787,20 +2804,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>110019966053</v>
       </c>
-      <c r="B16" t="n">
-        <v>45918.4719560185</v>
-      </c>
-      <c r="C16" t="n">
-        <v>45918.4736805556</v>
+      <c r="B16">
+        <v>45918.471956018497</v>
+      </c>
+      <c r="C16">
+        <v>45918.473680555602</v>
       </c>
       <c r="D16" t="s">
         <v>138</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>149</v>
       </c>
       <c r="F16" t="s">
@@ -2815,7 +2832,7 @@
       <c r="I16" t="s">
         <v>38</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J16">
         <v>270474947</v>
       </c>
       <c r="K16" t="s">
@@ -2897,20 +2914,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>110019967654</v>
       </c>
-      <c r="B17" t="n">
-        <v>45918.5814467593</v>
-      </c>
-      <c r="C17" t="n">
-        <v>45918.5832638889</v>
+      <c r="B17">
+        <v>45918.581446759301</v>
+      </c>
+      <c r="C17">
+        <v>45918.583263888897</v>
       </c>
       <c r="D17" t="s">
         <v>143</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>157</v>
       </c>
       <c r="F17" t="s">
@@ -2925,7 +2942,7 @@
       <c r="I17" t="s">
         <v>38</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J17">
         <v>270474947</v>
       </c>
       <c r="K17" t="s">
@@ -3007,20 +3024,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>110019967374</v>
       </c>
-      <c r="B18" t="n">
-        <v>45918.3490277778</v>
-      </c>
-      <c r="C18" t="n">
-        <v>45919.3605555556</v>
+      <c r="B18">
+        <v>45918.349027777796</v>
+      </c>
+      <c r="C18">
+        <v>45919.360555555599</v>
       </c>
       <c r="D18" t="s">
         <v>147</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>87395</v>
       </c>
       <c r="F18" t="s">
@@ -3035,7 +3052,7 @@
       <c r="I18" t="s">
         <v>38</v>
       </c>
-      <c r="J18" t="n">
+      <c r="J18">
         <v>270474947</v>
       </c>
       <c r="K18" t="s">
@@ -3117,20 +3134,20 @@
         <v>150</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>110019977817</v>
       </c>
-      <c r="B19" t="n">
-        <v>45919.5715856481</v>
-      </c>
-      <c r="C19" t="n">
-        <v>45919.5738541667</v>
+      <c r="B19">
+        <v>45919.571585648097</v>
+      </c>
+      <c r="C19">
+        <v>45919.573854166701</v>
       </c>
       <c r="D19" t="s">
         <v>151</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>196</v>
       </c>
       <c r="F19" t="s">
@@ -3145,7 +3162,7 @@
       <c r="I19" t="s">
         <v>38</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J19">
         <v>270474947</v>
       </c>
       <c r="K19" t="s">
@@ -3227,20 +3244,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>110019987878</v>
       </c>
-      <c r="B20" t="n">
-        <v>45922.0763425926</v>
-      </c>
-      <c r="C20" t="n">
-        <v>45922.0786458333</v>
+      <c r="B20">
+        <v>45922.076342592598</v>
+      </c>
+      <c r="C20">
+        <v>45922.078645833302</v>
       </c>
       <c r="D20" t="s">
         <v>157</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>199</v>
       </c>
       <c r="F20" t="s">
@@ -3255,7 +3272,7 @@
       <c r="I20" t="s">
         <v>38</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J20">
         <v>270474947</v>
       </c>
       <c r="K20" t="s">
@@ -3337,20 +3354,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>110019988168</v>
       </c>
-      <c r="B21" t="n">
-        <v>45922.2172453704</v>
-      </c>
-      <c r="C21" t="n">
-        <v>45922.2187152778</v>
+      <c r="B21">
+        <v>45922.217245370397</v>
+      </c>
+      <c r="C21">
+        <v>45922.218715277799</v>
       </c>
       <c r="D21" t="s">
         <v>165</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>127</v>
       </c>
       <c r="F21" t="s">
@@ -3365,7 +3382,7 @@
       <c r="I21" t="s">
         <v>38</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J21">
         <v>270474947</v>
       </c>
       <c r="K21" t="s">
@@ -3447,20 +3464,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>110019997542</v>
       </c>
-      <c r="B22" t="n">
-        <v>45923.1942013889</v>
-      </c>
-      <c r="C22" t="n">
-        <v>45923.196875</v>
+      <c r="B22">
+        <v>45923.194201388898</v>
+      </c>
+      <c r="C22">
+        <v>45923.196875000001</v>
       </c>
       <c r="D22" t="s">
         <v>170</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>231</v>
       </c>
       <c r="F22" t="s">
@@ -3475,7 +3492,7 @@
       <c r="I22" t="s">
         <v>38</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J22">
         <v>270474947</v>
       </c>
       <c r="K22" t="s">
@@ -3557,20 +3574,20 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>110019998087</v>
       </c>
-      <c r="B23" t="n">
-        <v>45923.2545717593</v>
-      </c>
-      <c r="C23" t="n">
-        <v>45923.2716087963</v>
+      <c r="B23">
+        <v>45923.254571759302</v>
+      </c>
+      <c r="C23">
+        <v>45923.271608796298</v>
       </c>
       <c r="D23" t="s">
         <v>175</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>1471</v>
       </c>
       <c r="F23" t="s">
@@ -3585,7 +3602,7 @@
       <c r="I23" t="s">
         <v>38</v>
       </c>
-      <c r="J23" t="n">
+      <c r="J23">
         <v>270474947</v>
       </c>
       <c r="K23" t="s">
@@ -3667,20 +3684,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>110019998319</v>
       </c>
-      <c r="B24" t="n">
-        <v>45923.2920023148</v>
-      </c>
-      <c r="C24" t="n">
-        <v>45923.2933796296</v>
+      <c r="B24">
+        <v>45923.292002314804</v>
+      </c>
+      <c r="C24">
+        <v>45923.293379629598</v>
       </c>
       <c r="D24" t="s">
         <v>179</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>119</v>
       </c>
       <c r="F24" t="s">
@@ -3695,7 +3712,7 @@
       <c r="I24" t="s">
         <v>38</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J24">
         <v>270474947</v>
       </c>
       <c r="K24" t="s">
@@ -3777,20 +3794,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>110019998641</v>
       </c>
-      <c r="B25" t="n">
-        <v>45923.3194328704</v>
-      </c>
-      <c r="C25" t="n">
-        <v>45923.3220717593</v>
+      <c r="B25">
+        <v>45923.319432870398</v>
+      </c>
+      <c r="C25">
+        <v>45923.322071759299</v>
       </c>
       <c r="D25" t="s">
         <v>184</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>227</v>
       </c>
       <c r="F25" t="s">
@@ -3805,7 +3822,7 @@
       <c r="I25" t="s">
         <v>38</v>
       </c>
-      <c r="J25" t="n">
+      <c r="J25">
         <v>270474947</v>
       </c>
       <c r="K25" t="s">
@@ -3887,20 +3904,20 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>110019999057</v>
       </c>
-      <c r="B26" t="n">
-        <v>45923.3478356482</v>
-      </c>
-      <c r="C26" t="n">
-        <v>45923.3494328704</v>
+      <c r="B26">
+        <v>45923.347835648201</v>
+      </c>
+      <c r="C26">
+        <v>45923.349432870396</v>
       </c>
       <c r="D26" t="s">
         <v>189</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>138</v>
       </c>
       <c r="F26" t="s">
@@ -3915,7 +3932,7 @@
       <c r="I26" t="s">
         <v>38</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J26">
         <v>270474947</v>
       </c>
       <c r="K26" t="s">
@@ -3997,20 +4014,20 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>110020002838</v>
       </c>
-      <c r="B27" t="n">
-        <v>45923.5845486111</v>
-      </c>
-      <c r="C27" t="n">
+      <c r="B27">
+        <v>45923.584548611099</v>
+      </c>
+      <c r="C27">
         <v>45923.5854861111</v>
       </c>
       <c r="D27" t="s">
         <v>194</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>81</v>
       </c>
       <c r="F27" t="s">
@@ -4025,7 +4042,7 @@
       <c r="I27" t="s">
         <v>38</v>
       </c>
-      <c r="J27" t="n">
+      <c r="J27">
         <v>270474947</v>
       </c>
       <c r="K27" t="s">
@@ -4107,20 +4124,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>110020014060</v>
       </c>
-      <c r="B28" t="n">
-        <v>45925.3381018518</v>
-      </c>
-      <c r="C28" t="n">
-        <v>45925.3400231482</v>
+      <c r="B28">
+        <v>45925.338101851798</v>
+      </c>
+      <c r="C28">
+        <v>45925.340023148201</v>
       </c>
       <c r="D28" t="s">
         <v>198</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>165</v>
       </c>
       <c r="F28" t="s">
@@ -4135,7 +4152,7 @@
       <c r="I28" t="s">
         <v>38</v>
       </c>
-      <c r="J28" t="n">
+      <c r="J28">
         <v>270474947</v>
       </c>
       <c r="K28" t="s">
@@ -4217,20 +4234,20 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>110020014079</v>
       </c>
-      <c r="B29" t="n">
-        <v>45925.3398148148</v>
-      </c>
-      <c r="C29" t="n">
-        <v>45925.3415509259</v>
+      <c r="B29">
+        <v>45925.339814814797</v>
+      </c>
+      <c r="C29">
+        <v>45925.341550925899</v>
       </c>
       <c r="D29" t="s">
         <v>204</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>150</v>
       </c>
       <c r="F29" t="s">
@@ -4245,7 +4262,7 @@
       <c r="I29" t="s">
         <v>38</v>
       </c>
-      <c r="J29" t="n">
+      <c r="J29">
         <v>270474947</v>
       </c>
       <c r="K29" t="s">
@@ -4327,20 +4344,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>110020014081</v>
       </c>
-      <c r="B30" t="n">
-        <v>45925.3408217593</v>
-      </c>
-      <c r="C30" t="n">
-        <v>45925.3415972222</v>
+      <c r="B30">
+        <v>45925.340821759302</v>
+      </c>
+      <c r="C30">
+        <v>45925.341597222199</v>
       </c>
       <c r="D30" t="s">
         <v>207</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>66</v>
       </c>
       <c r="F30" t="s">
@@ -4355,7 +4372,7 @@
       <c r="I30" t="s">
         <v>38</v>
       </c>
-      <c r="J30" t="n">
+      <c r="J30">
         <v>270474947</v>
       </c>
       <c r="K30" t="s">
@@ -4437,20 +4454,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>110020014083</v>
       </c>
-      <c r="B31" t="n">
-        <v>45925.3402314815</v>
-      </c>
-      <c r="C31" t="n">
-        <v>45925.3418055556</v>
+      <c r="B31">
+        <v>45925.340231481503</v>
+      </c>
+      <c r="C31">
+        <v>45925.341805555603</v>
       </c>
       <c r="D31" t="s">
         <v>211</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>135</v>
       </c>
       <c r="F31" t="s">
@@ -4465,7 +4482,7 @@
       <c r="I31" t="s">
         <v>38</v>
       </c>
-      <c r="J31" t="n">
+      <c r="J31">
         <v>270474947</v>
       </c>
       <c r="K31" t="s">
@@ -4547,20 +4564,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>110020014296</v>
       </c>
-      <c r="B32" t="n">
-        <v>45925.4406828704</v>
-      </c>
-      <c r="C32" t="n">
-        <v>45925.4424421296</v>
+      <c r="B32">
+        <v>45925.440682870401</v>
+      </c>
+      <c r="C32">
+        <v>45925.442442129599</v>
       </c>
       <c r="D32" t="s">
         <v>215</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>152</v>
       </c>
       <c r="F32" t="s">
@@ -4575,7 +4592,7 @@
       <c r="I32" t="s">
         <v>38</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J32">
         <v>270474947</v>
       </c>
       <c r="K32" t="s">
@@ -4657,20 +4674,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>110020014350</v>
       </c>
-      <c r="B33" t="n">
-        <v>45925.4435648148</v>
-      </c>
-      <c r="C33" t="n">
-        <v>45925.4453935185</v>
+      <c r="B33">
+        <v>45925.443564814799</v>
+      </c>
+      <c r="C33">
+        <v>45925.445393518501</v>
       </c>
       <c r="D33" t="s">
         <v>220</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>157</v>
       </c>
       <c r="F33" t="s">
@@ -4685,7 +4702,7 @@
       <c r="I33" t="s">
         <v>38</v>
       </c>
-      <c r="J33" t="n">
+      <c r="J33">
         <v>270474947</v>
       </c>
       <c r="K33" t="s">
@@ -4767,20 +4784,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>110020014381</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>45925.447337963</v>
       </c>
-      <c r="C34" t="n">
-        <v>45925.4482523148</v>
+      <c r="C34">
+        <v>45925.448252314804</v>
       </c>
       <c r="D34" t="s">
         <v>225</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>78</v>
       </c>
       <c r="F34" t="s">
@@ -4795,7 +4812,7 @@
       <c r="I34" t="s">
         <v>38</v>
       </c>
-      <c r="J34" t="n">
+      <c r="J34">
         <v>270474947</v>
       </c>
       <c r="K34" t="s">
@@ -4877,20 +4894,20 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>110020014414</v>
       </c>
-      <c r="B35" t="n">
-        <v>45925.4495486111</v>
-      </c>
-      <c r="C35" t="n">
-        <v>45925.4512037037</v>
+      <c r="B35">
+        <v>45925.449548611097</v>
+      </c>
+      <c r="C35">
+        <v>45925.451203703698</v>
       </c>
       <c r="D35" t="s">
         <v>230</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>142</v>
       </c>
       <c r="F35" t="s">
@@ -4905,7 +4922,7 @@
       <c r="I35" t="s">
         <v>38</v>
       </c>
-      <c r="J35" t="n">
+      <c r="J35">
         <v>270474947</v>
       </c>
       <c r="K35" t="s">
@@ -4987,20 +5004,20 @@
         <v>234</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>110020014482</v>
       </c>
-      <c r="B36" t="n">
-        <v>45925.4446527778</v>
-      </c>
-      <c r="C36" t="n">
-        <v>45925.4559837963</v>
+      <c r="B36">
+        <v>45925.444652777798</v>
+      </c>
+      <c r="C36">
+        <v>45925.455983796302</v>
       </c>
       <c r="D36" t="s">
         <v>235</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>979</v>
       </c>
       <c r="F36" t="s">
@@ -5015,7 +5032,7 @@
       <c r="I36" t="s">
         <v>38</v>
       </c>
-      <c r="J36" t="n">
+      <c r="J36">
         <v>270474947</v>
       </c>
       <c r="K36" t="s">
@@ -5097,20 +5114,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>110020014501</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>45925.4542939815</v>
       </c>
-      <c r="C37" t="n">
-        <v>45925.4571064815</v>
+      <c r="C37">
+        <v>45925.457106481503</v>
       </c>
       <c r="D37" t="s">
         <v>236</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>243</v>
       </c>
       <c r="F37" t="s">
@@ -5125,7 +5142,7 @@
       <c r="I37" t="s">
         <v>38</v>
       </c>
-      <c r="J37" t="n">
+      <c r="J37">
         <v>270474947</v>
       </c>
       <c r="K37" t="s">
@@ -5207,20 +5224,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>110020014513</v>
       </c>
-      <c r="B38" t="n">
-        <v>45925.4561921296</v>
-      </c>
-      <c r="C38" t="n">
-        <v>45925.4583796296</v>
-      </c>
-      <c r="D38" t="s">
-        <v>241</v>
-      </c>
-      <c r="E38" t="n">
+      <c r="B38">
+        <v>45925.456192129597</v>
+      </c>
+      <c r="C38">
+        <v>45925.458379629599</v>
+      </c>
+      <c r="E38">
         <v>189</v>
       </c>
       <c r="F38" t="s">
@@ -5235,7 +5249,7 @@
       <c r="I38" t="s">
         <v>38</v>
       </c>
-      <c r="J38" t="n">
+      <c r="J38">
         <v>270474947</v>
       </c>
       <c r="K38" t="s">
@@ -5247,12 +5261,6 @@
       <c r="M38" t="s">
         <v>40</v>
       </c>
-      <c r="N38" t="s">
-        <v>242</v>
-      </c>
-      <c r="O38" t="s">
-        <v>243</v>
-      </c>
       <c r="P38" t="s">
         <v>67</v>
       </c>
@@ -5310,27 +5318,21 @@
       <c r="AH38" t="s">
         <v>38</v>
       </c>
-      <c r="AI38" t="s">
-        <v>244</v>
-      </c>
       <c r="AJ38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>110020014106</v>
       </c>
-      <c r="B39" t="n">
-        <v>45925.4265393519</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39">
+        <v>45925.426539351902</v>
+      </c>
+      <c r="C39">
         <v>45925.4753009259</v>
       </c>
-      <c r="D39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>4212</v>
       </c>
       <c r="F39" t="s">
@@ -5345,7 +5347,7 @@
       <c r="I39" t="s">
         <v>38</v>
       </c>
-      <c r="J39" t="n">
+      <c r="J39">
         <v>270474947</v>
       </c>
       <c r="K39" t="s">
@@ -5357,18 +5359,9 @@
       <c r="M39" t="s">
         <v>40</v>
       </c>
-      <c r="N39" t="s">
-        <v>246</v>
-      </c>
-      <c r="O39" t="s">
-        <v>247</v>
-      </c>
       <c r="P39" t="s">
         <v>67</v>
       </c>
-      <c r="Q39" t="s">
-        <v>248</v>
-      </c>
       <c r="R39" t="s">
         <v>116</v>
       </c>
@@ -5417,30 +5410,21 @@
       <c r="AG39" t="s">
         <v>51</v>
       </c>
-      <c r="AH39" t="s">
-        <v>249</v>
-      </c>
       <c r="AI39" t="s">
         <v>80</v>
       </c>
-      <c r="AJ39" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+    </row>
+    <row r="40" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>110020016288</v>
       </c>
-      <c r="B40" t="n">
-        <v>45925.5565509259</v>
-      </c>
-      <c r="C40" t="n">
-        <v>45925.5578125</v>
-      </c>
-      <c r="D40" t="s">
-        <v>251</v>
-      </c>
-      <c r="E40" t="n">
+      <c r="B40">
+        <v>45925.556550925903</v>
+      </c>
+      <c r="C40">
+        <v>45925.557812500003</v>
+      </c>
+      <c r="E40">
         <v>109</v>
       </c>
       <c r="F40" t="s">
@@ -5455,7 +5439,7 @@
       <c r="I40" t="s">
         <v>38</v>
       </c>
-      <c r="J40" t="n">
+      <c r="J40">
         <v>270474947</v>
       </c>
       <c r="K40" t="s">
@@ -5467,18 +5451,9 @@
       <c r="M40" t="s">
         <v>40</v>
       </c>
-      <c r="N40" t="s">
-        <v>252</v>
-      </c>
-      <c r="O40" t="s">
-        <v>253</v>
-      </c>
       <c r="P40" t="s">
         <v>67</v>
       </c>
-      <c r="Q40" t="s">
-        <v>254</v>
-      </c>
       <c r="R40" t="s">
         <v>100</v>
       </c>
@@ -5537,20 +5512,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>110020016301</v>
       </c>
-      <c r="B41" t="n">
-        <v>45925.556875</v>
-      </c>
-      <c r="C41" t="n">
-        <v>45925.5586921296</v>
-      </c>
-      <c r="D41" t="s">
-        <v>255</v>
-      </c>
-      <c r="E41" t="n">
+      <c r="B41">
+        <v>45925.556875000002</v>
+      </c>
+      <c r="C41">
+        <v>45925.558692129598</v>
+      </c>
+      <c r="E41">
         <v>156</v>
       </c>
       <c r="F41" t="s">
@@ -5565,7 +5537,7 @@
       <c r="I41" t="s">
         <v>38</v>
       </c>
-      <c r="J41" t="n">
+      <c r="J41">
         <v>270474947</v>
       </c>
       <c r="K41" t="s">
@@ -5577,18 +5549,9 @@
       <c r="M41" t="s">
         <v>40</v>
       </c>
-      <c r="N41" t="s">
-        <v>256</v>
-      </c>
-      <c r="O41" t="s">
-        <v>257</v>
-      </c>
       <c r="P41" t="s">
         <v>67</v>
       </c>
-      <c r="Q41" t="s">
-        <v>258</v>
-      </c>
       <c r="R41" t="s">
         <v>100</v>
       </c>
@@ -5610,9 +5573,6 @@
       <c r="X41" t="s">
         <v>93</v>
       </c>
-      <c r="Y41" t="s">
-        <v>259</v>
-      </c>
       <c r="Z41" t="s">
         <v>51</v>
       </c>
@@ -5647,20 +5607,20 @@
         <v>97</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>110020016313</v>
       </c>
-      <c r="B42" t="n">
-        <v>45925.5582407407</v>
-      </c>
-      <c r="C42" t="n">
-        <v>45925.5596527778</v>
+      <c r="B42">
+        <v>45925.558240740698</v>
+      </c>
+      <c r="C42">
+        <v>45925.559652777803</v>
       </c>
       <c r="D42" t="s">
         <v>194</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>121</v>
       </c>
       <c r="F42" t="s">
@@ -5675,7 +5635,7 @@
       <c r="I42" t="s">
         <v>38</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J42">
         <v>270474947</v>
       </c>
       <c r="K42" t="s">
@@ -5687,12 +5647,6 @@
       <c r="M42" t="s">
         <v>40</v>
       </c>
-      <c r="N42" t="s">
-        <v>260</v>
-      </c>
-      <c r="O42" t="s">
-        <v>261</v>
-      </c>
       <c r="P42" t="s">
         <v>67</v>
       </c>
@@ -5753,24 +5707,18 @@
       <c r="AI42" t="s">
         <v>80</v>
       </c>
-      <c r="AJ42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+    </row>
+    <row r="43" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>110020016328</v>
       </c>
-      <c r="B43" t="n">
-        <v>45925.5577893518</v>
-      </c>
-      <c r="C43" t="n">
-        <v>45925.5602199074</v>
-      </c>
-      <c r="D43" t="s">
-        <v>263</v>
-      </c>
-      <c r="E43" t="n">
+      <c r="B43">
+        <v>45925.557789351798</v>
+      </c>
+      <c r="C43">
+        <v>45925.560219907398</v>
+      </c>
+      <c r="E43">
         <v>210</v>
       </c>
       <c r="F43" t="s">
@@ -5785,7 +5733,7 @@
       <c r="I43" t="s">
         <v>38</v>
       </c>
-      <c r="J43" t="n">
+      <c r="J43">
         <v>270474947</v>
       </c>
       <c r="K43" t="s">
@@ -5797,12 +5745,6 @@
       <c r="M43" t="s">
         <v>97</v>
       </c>
-      <c r="N43" t="s">
-        <v>264</v>
-      </c>
-      <c r="O43" t="s">
-        <v>265</v>
-      </c>
       <c r="P43" t="s">
         <v>67</v>
       </c>
@@ -5867,20 +5809,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>110020016335</v>
       </c>
-      <c r="B44" t="n">
-        <v>45925.5597453704</v>
-      </c>
-      <c r="C44" t="n">
-        <v>45925.5610069444</v>
-      </c>
-      <c r="D44" t="s">
-        <v>266</v>
-      </c>
-      <c r="E44" t="n">
+      <c r="B44">
+        <v>45925.559745370403</v>
+      </c>
+      <c r="C44">
+        <v>45925.561006944401</v>
+      </c>
+      <c r="E44">
         <v>109</v>
       </c>
       <c r="F44" t="s">
@@ -5895,7 +5834,7 @@
       <c r="I44" t="s">
         <v>38</v>
       </c>
-      <c r="J44" t="n">
+      <c r="J44">
         <v>270474947</v>
       </c>
       <c r="K44" t="s">
@@ -5907,12 +5846,6 @@
       <c r="M44" t="s">
         <v>40</v>
       </c>
-      <c r="N44" t="s">
-        <v>267</v>
-      </c>
-      <c r="O44" t="s">
-        <v>268</v>
-      </c>
       <c r="P44" t="s">
         <v>67</v>
       </c>
@@ -5970,27 +5903,21 @@
       <c r="AH44" t="s">
         <v>38</v>
       </c>
-      <c r="AI44" t="s">
-        <v>269</v>
-      </c>
       <c r="AJ44" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>110020016517</v>
       </c>
-      <c r="B45" t="n">
-        <v>45925.5696296296</v>
-      </c>
-      <c r="C45" t="n">
-        <v>45925.5717708333</v>
-      </c>
-      <c r="D45" t="s">
-        <v>270</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="B45">
+        <v>45925.569629629601</v>
+      </c>
+      <c r="C45">
+        <v>45925.571770833303</v>
+      </c>
+      <c r="E45">
         <v>185</v>
       </c>
       <c r="F45" t="s">
@@ -6005,7 +5932,7 @@
       <c r="I45" t="s">
         <v>38</v>
       </c>
-      <c r="J45" t="n">
+      <c r="J45">
         <v>270474947</v>
       </c>
       <c r="K45" t="s">
@@ -6017,18 +5944,9 @@
       <c r="M45" t="s">
         <v>40</v>
       </c>
-      <c r="N45" t="s">
-        <v>271</v>
-      </c>
-      <c r="O45" t="s">
-        <v>272</v>
-      </c>
       <c r="P45" t="s">
         <v>67</v>
       </c>
-      <c r="Q45" t="s">
-        <v>273</v>
-      </c>
       <c r="R45" t="s">
         <v>100</v>
       </c>
@@ -6083,24 +6001,18 @@
       <c r="AI45" t="s">
         <v>80</v>
       </c>
-      <c r="AJ45" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+    </row>
+    <row r="46" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>110020016570</v>
       </c>
-      <c r="B46" t="n">
-        <v>45925.5732060185</v>
-      </c>
-      <c r="C46" t="n">
-        <v>45925.5750347222</v>
-      </c>
-      <c r="D46" t="s">
-        <v>275</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="B46">
+        <v>45925.573206018496</v>
+      </c>
+      <c r="C46">
+        <v>45925.575034722198</v>
+      </c>
+      <c r="E46">
         <v>157</v>
       </c>
       <c r="F46" t="s">
@@ -6115,7 +6027,7 @@
       <c r="I46" t="s">
         <v>38</v>
       </c>
-      <c r="J46" t="n">
+      <c r="J46">
         <v>270474947</v>
       </c>
       <c r="K46" t="s">
@@ -6127,18 +6039,9 @@
       <c r="M46" t="s">
         <v>40</v>
       </c>
-      <c r="N46" t="s">
-        <v>276</v>
-      </c>
-      <c r="O46" t="s">
-        <v>277</v>
-      </c>
       <c r="P46" t="s">
         <v>67</v>
       </c>
-      <c r="Q46" t="s">
-        <v>278</v>
-      </c>
       <c r="R46" t="s">
         <v>100</v>
       </c>
@@ -6197,20 +6100,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>110020016800</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>45925.5871527778</v>
       </c>
-      <c r="C47" t="n">
-        <v>45925.5897106481</v>
-      </c>
-      <c r="D47" t="s">
-        <v>279</v>
-      </c>
-      <c r="E47" t="n">
+      <c r="C47">
+        <v>45925.589710648099</v>
+      </c>
+      <c r="E47">
         <v>221</v>
       </c>
       <c r="F47" t="s">
@@ -6225,7 +6125,7 @@
       <c r="I47" t="s">
         <v>38</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J47">
         <v>270474947</v>
       </c>
       <c r="K47" t="s">
@@ -6237,12 +6137,6 @@
       <c r="M47" t="s">
         <v>40</v>
       </c>
-      <c r="N47" t="s">
-        <v>280</v>
-      </c>
-      <c r="O47" t="s">
-        <v>281</v>
-      </c>
       <c r="P47" t="s">
         <v>67</v>
       </c>
@@ -6303,24 +6197,18 @@
       <c r="AI47" t="s">
         <v>80</v>
       </c>
-      <c r="AJ47" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+    </row>
+    <row r="48" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>110020016839</v>
       </c>
-      <c r="B48" t="n">
-        <v>45925.5896990741</v>
-      </c>
-      <c r="C48" t="n">
-        <v>45925.5910648148</v>
-      </c>
-      <c r="D48" t="s">
-        <v>283</v>
-      </c>
-      <c r="E48" t="n">
+      <c r="B48">
+        <v>45925.589699074102</v>
+      </c>
+      <c r="C48">
+        <v>45925.591064814798</v>
+      </c>
+      <c r="E48">
         <v>117</v>
       </c>
       <c r="F48" t="s">
@@ -6335,7 +6223,7 @@
       <c r="I48" t="s">
         <v>38</v>
       </c>
-      <c r="J48" t="n">
+      <c r="J48">
         <v>270474947</v>
       </c>
       <c r="K48" t="s">
@@ -6347,18 +6235,9 @@
       <c r="M48" t="s">
         <v>40</v>
       </c>
-      <c r="N48" t="s">
-        <v>284</v>
-      </c>
-      <c r="O48" t="s">
-        <v>285</v>
-      </c>
       <c r="P48" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" t="s">
-        <v>286</v>
-      </c>
       <c r="R48" t="s">
         <v>100</v>
       </c>
@@ -6380,9 +6259,6 @@
       <c r="X48" t="s">
         <v>70</v>
       </c>
-      <c r="Y48" t="s">
-        <v>287</v>
-      </c>
       <c r="Z48" t="s">
         <v>51</v>
       </c>
@@ -6417,20 +6293,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>110020016867</v>
       </c>
-      <c r="B49" t="n">
-        <v>45925.5913773148</v>
-      </c>
-      <c r="C49" t="n">
-        <v>45925.5924305556</v>
-      </c>
-      <c r="D49" t="s">
-        <v>288</v>
-      </c>
-      <c r="E49" t="n">
+      <c r="B49">
+        <v>45925.591377314799</v>
+      </c>
+      <c r="C49">
+        <v>45925.592430555596</v>
+      </c>
+      <c r="E49">
         <v>90</v>
       </c>
       <c r="F49" t="s">
@@ -6445,7 +6318,7 @@
       <c r="I49" t="s">
         <v>38</v>
       </c>
-      <c r="J49" t="n">
+      <c r="J49">
         <v>270474947</v>
       </c>
       <c r="K49" t="s">
@@ -6457,18 +6330,9 @@
       <c r="M49" t="s">
         <v>40</v>
       </c>
-      <c r="N49" t="s">
-        <v>289</v>
-      </c>
-      <c r="O49" t="s">
-        <v>290</v>
-      </c>
       <c r="P49" t="s">
         <v>67</v>
       </c>
-      <c r="Q49" t="s">
-        <v>273</v>
-      </c>
       <c r="R49" t="s">
         <v>100</v>
       </c>
@@ -6527,20 +6391,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>110020017245</v>
       </c>
-      <c r="B50" t="n">
-        <v>45925.612037037</v>
-      </c>
-      <c r="C50" t="n">
-        <v>45925.6145138889</v>
-      </c>
-      <c r="D50" t="s">
-        <v>291</v>
-      </c>
-      <c r="E50" t="n">
+      <c r="B50">
+        <v>45925.612037036997</v>
+      </c>
+      <c r="C50">
+        <v>45925.614513888897</v>
+      </c>
+      <c r="E50">
         <v>214</v>
       </c>
       <c r="F50" t="s">
@@ -6555,7 +6416,7 @@
       <c r="I50" t="s">
         <v>38</v>
       </c>
-      <c r="J50" t="n">
+      <c r="J50">
         <v>270474947</v>
       </c>
       <c r="K50" t="s">
@@ -6567,18 +6428,9 @@
       <c r="M50" t="s">
         <v>97</v>
       </c>
-      <c r="N50" t="s">
-        <v>292</v>
-      </c>
-      <c r="O50" t="s">
-        <v>293</v>
-      </c>
       <c r="P50" t="s">
         <v>67</v>
       </c>
-      <c r="Q50" t="s">
-        <v>294</v>
-      </c>
       <c r="R50" t="s">
         <v>92</v>
       </c>
@@ -6637,20 +6489,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>110020017778</v>
       </c>
-      <c r="B51" t="n">
-        <v>45925.6369097222</v>
-      </c>
-      <c r="C51" t="n">
-        <v>45925.6391203704</v>
-      </c>
-      <c r="D51" t="s">
-        <v>295</v>
-      </c>
-      <c r="E51" t="n">
+      <c r="B51">
+        <v>45925.636909722198</v>
+      </c>
+      <c r="C51">
+        <v>45925.639120370397</v>
+      </c>
+      <c r="E51">
         <v>191</v>
       </c>
       <c r="F51" t="s">
@@ -6665,7 +6514,7 @@
       <c r="I51" t="s">
         <v>38</v>
       </c>
-      <c r="J51" t="n">
+      <c r="J51">
         <v>270474947</v>
       </c>
       <c r="K51" t="s">
@@ -6677,12 +6526,6 @@
       <c r="M51" t="s">
         <v>40</v>
       </c>
-      <c r="N51" t="s">
-        <v>296</v>
-      </c>
-      <c r="O51" t="s">
-        <v>297</v>
-      </c>
       <c r="P51" t="s">
         <v>67</v>
       </c>
@@ -6747,20 +6590,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>110020017896</v>
       </c>
-      <c r="B52" t="n">
-        <v>45925.6441666667</v>
-      </c>
-      <c r="C52" t="n">
-        <v>45925.645150463</v>
-      </c>
-      <c r="D52" t="s">
-        <v>298</v>
-      </c>
-      <c r="E52" t="n">
+      <c r="B52">
+        <v>45925.644166666701</v>
+      </c>
+      <c r="C52">
+        <v>45925.645150463002</v>
+      </c>
+      <c r="E52">
         <v>84</v>
       </c>
       <c r="F52" t="s">
@@ -6775,7 +6615,7 @@
       <c r="I52" t="s">
         <v>38</v>
       </c>
-      <c r="J52" t="n">
+      <c r="J52">
         <v>270474947</v>
       </c>
       <c r="K52" t="s">
@@ -6787,18 +6627,9 @@
       <c r="M52" t="s">
         <v>40</v>
       </c>
-      <c r="N52" t="s">
-        <v>299</v>
-      </c>
-      <c r="O52" t="s">
-        <v>300</v>
-      </c>
       <c r="P52" t="s">
         <v>67</v>
       </c>
-      <c r="Q52" t="s">
-        <v>301</v>
-      </c>
       <c r="R52" t="s">
         <v>100</v>
       </c>
@@ -6853,24 +6684,18 @@
       <c r="AI52" t="s">
         <v>80</v>
       </c>
-      <c r="AJ52" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
+    </row>
+    <row r="53" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>110020017917</v>
       </c>
-      <c r="B53" t="n">
-        <v>45925.6441550926</v>
-      </c>
-      <c r="C53" t="n">
-        <v>45925.6463078704</v>
-      </c>
-      <c r="D53" t="s">
-        <v>303</v>
-      </c>
-      <c r="E53" t="n">
+      <c r="B53">
+        <v>45925.644155092603</v>
+      </c>
+      <c r="C53">
+        <v>45925.646307870396</v>
+      </c>
+      <c r="E53">
         <v>185</v>
       </c>
       <c r="F53" t="s">
@@ -6885,7 +6710,7 @@
       <c r="I53" t="s">
         <v>38</v>
       </c>
-      <c r="J53" t="n">
+      <c r="J53">
         <v>270474947</v>
       </c>
       <c r="K53" t="s">
@@ -6897,18 +6722,9 @@
       <c r="M53" t="s">
         <v>40</v>
       </c>
-      <c r="N53" t="s">
-        <v>304</v>
-      </c>
-      <c r="O53" t="s">
-        <v>305</v>
-      </c>
       <c r="P53" t="s">
         <v>67</v>
       </c>
-      <c r="Q53" t="s">
-        <v>273</v>
-      </c>
       <c r="R53" t="s">
         <v>100</v>
       </c>
@@ -6930,9 +6746,6 @@
       <c r="X53" t="s">
         <v>93</v>
       </c>
-      <c r="Y53" t="s">
-        <v>259</v>
-      </c>
       <c r="Z53" t="s">
         <v>51</v>
       </c>
@@ -6960,27 +6773,18 @@
       <c r="AH53" t="s">
         <v>38</v>
       </c>
-      <c r="AI53" t="s">
-        <v>306</v>
-      </c>
-      <c r="AJ53" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+    </row>
+    <row r="54" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>110020017933</v>
       </c>
-      <c r="B54" t="n">
-        <v>45925.6448726852</v>
-      </c>
-      <c r="C54" t="n">
-        <v>45925.6468055556</v>
-      </c>
-      <c r="D54" t="s">
-        <v>308</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="B54">
+        <v>45925.644872685203</v>
+      </c>
+      <c r="C54">
+        <v>45925.646805555603</v>
+      </c>
+      <c r="E54">
         <v>166</v>
       </c>
       <c r="F54" t="s">
@@ -6995,7 +6799,7 @@
       <c r="I54" t="s">
         <v>38</v>
       </c>
-      <c r="J54" t="n">
+      <c r="J54">
         <v>270474947</v>
       </c>
       <c r="K54" t="s">
@@ -7007,12 +6811,6 @@
       <c r="M54" t="s">
         <v>40</v>
       </c>
-      <c r="N54" t="s">
-        <v>309</v>
-      </c>
-      <c r="O54" t="s">
-        <v>310</v>
-      </c>
       <c r="P54" t="s">
         <v>67</v>
       </c>
@@ -7077,20 +6875,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>110020018121</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>45925.6549884259</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>45925.6567476852</v>
       </c>
-      <c r="D55" t="s">
-        <v>311</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>152</v>
       </c>
       <c r="F55" t="s">
@@ -7105,7 +6900,7 @@
       <c r="I55" t="s">
         <v>38</v>
       </c>
-      <c r="J55" t="n">
+      <c r="J55">
         <v>270474947</v>
       </c>
       <c r="K55" t="s">
@@ -7117,18 +6912,9 @@
       <c r="M55" t="s">
         <v>40</v>
       </c>
-      <c r="N55" t="s">
-        <v>312</v>
-      </c>
-      <c r="O55" t="s">
-        <v>313</v>
-      </c>
       <c r="P55" t="s">
         <v>67</v>
       </c>
-      <c r="Q55" t="s">
-        <v>258</v>
-      </c>
       <c r="R55" t="s">
         <v>100</v>
       </c>
@@ -7150,9 +6936,6 @@
       <c r="X55" t="s">
         <v>131</v>
       </c>
-      <c r="Y55" t="s">
-        <v>314</v>
-      </c>
       <c r="Z55" t="s">
         <v>51</v>
       </c>
@@ -7187,20 +6970,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>110020019097</v>
       </c>
-      <c r="B56" t="n">
-        <v>45925.70125</v>
-      </c>
-      <c r="C56" t="n">
-        <v>45925.7044097222</v>
-      </c>
-      <c r="D56" t="s">
-        <v>315</v>
-      </c>
-      <c r="E56" t="n">
+      <c r="B56">
+        <v>45925.701249999998</v>
+      </c>
+      <c r="C56">
+        <v>45925.704409722202</v>
+      </c>
+      <c r="E56">
         <v>273</v>
       </c>
       <c r="F56" t="s">
@@ -7215,7 +6995,7 @@
       <c r="I56" t="s">
         <v>38</v>
       </c>
-      <c r="J56" t="n">
+      <c r="J56">
         <v>270474947</v>
       </c>
       <c r="K56" t="s">
@@ -7227,18 +7007,9 @@
       <c r="M56" t="s">
         <v>40</v>
       </c>
-      <c r="N56" t="s">
-        <v>316</v>
-      </c>
-      <c r="O56" t="s">
-        <v>317</v>
-      </c>
       <c r="P56" t="s">
         <v>67</v>
       </c>
-      <c r="Q56" t="s">
-        <v>294</v>
-      </c>
       <c r="R56" t="s">
         <v>100</v>
       </c>
@@ -7297,20 +7068,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>110020021205</v>
       </c>
-      <c r="B57" t="n">
-        <v>45925.8472222222</v>
-      </c>
-      <c r="C57" t="n">
-        <v>45925.8495023148</v>
-      </c>
-      <c r="D57" t="s">
-        <v>318</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="B57">
+        <v>45925.847222222197</v>
+      </c>
+      <c r="C57">
+        <v>45925.849502314799</v>
+      </c>
+      <c r="E57">
         <v>197</v>
       </c>
       <c r="F57" t="s">
@@ -7325,7 +7093,7 @@
       <c r="I57" t="s">
         <v>38</v>
       </c>
-      <c r="J57" t="n">
+      <c r="J57">
         <v>270474947</v>
       </c>
       <c r="K57" t="s">
@@ -7337,12 +7105,6 @@
       <c r="M57" t="s">
         <v>40</v>
       </c>
-      <c r="N57" t="s">
-        <v>319</v>
-      </c>
-      <c r="O57" t="s">
-        <v>320</v>
-      </c>
       <c r="P57" t="s">
         <v>67</v>
       </c>
@@ -7403,24 +7165,18 @@
       <c r="AI57" t="s">
         <v>80</v>
       </c>
-      <c r="AJ57" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
+    </row>
+    <row r="58" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>110020022419</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>45926.134525463</v>
       </c>
-      <c r="C58" t="n">
-        <v>45926.1363657407</v>
-      </c>
-      <c r="D58" t="s">
-        <v>322</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="C58">
+        <v>45926.136365740698</v>
+      </c>
+      <c r="E58">
         <v>158</v>
       </c>
       <c r="F58" t="s">
@@ -7435,7 +7191,7 @@
       <c r="I58" t="s">
         <v>38</v>
       </c>
-      <c r="J58" t="n">
+      <c r="J58">
         <v>270474947</v>
       </c>
       <c r="K58" t="s">
@@ -7447,18 +7203,9 @@
       <c r="M58" t="s">
         <v>40</v>
       </c>
-      <c r="N58" t="s">
-        <v>323</v>
-      </c>
-      <c r="O58" t="s">
-        <v>324</v>
-      </c>
       <c r="P58" t="s">
         <v>67</v>
       </c>
-      <c r="Q58" t="s">
-        <v>325</v>
-      </c>
       <c r="R58" t="s">
         <v>92</v>
       </c>
@@ -7507,30 +7254,21 @@
       <c r="AG58" t="s">
         <v>52</v>
       </c>
-      <c r="AH58" t="s">
-        <v>326</v>
-      </c>
       <c r="AI58" t="s">
         <v>80</v>
       </c>
-      <c r="AJ58" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
+    </row>
+    <row r="59" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>110020022451</v>
       </c>
-      <c r="B59" t="n">
-        <v>45926.1595023148</v>
-      </c>
-      <c r="C59" t="n">
-        <v>45926.1636921296</v>
-      </c>
-      <c r="D59" t="s">
-        <v>328</v>
-      </c>
-      <c r="E59" t="n">
+      <c r="B59">
+        <v>45926.159502314797</v>
+      </c>
+      <c r="C59">
+        <v>45926.163692129601</v>
+      </c>
+      <c r="E59">
         <v>361</v>
       </c>
       <c r="F59" t="s">
@@ -7545,7 +7283,7 @@
       <c r="I59" t="s">
         <v>38</v>
       </c>
-      <c r="J59" t="n">
+      <c r="J59">
         <v>270474947</v>
       </c>
       <c r="K59" t="s">
@@ -7557,21 +7295,12 @@
       <c r="M59" t="s">
         <v>40</v>
       </c>
-      <c r="N59" t="s">
-        <v>329</v>
-      </c>
-      <c r="O59" t="s">
-        <v>330</v>
-      </c>
       <c r="P59" t="s">
         <v>67</v>
       </c>
       <c r="Q59" t="s">
         <v>223</v>
       </c>
-      <c r="R59" t="s">
-        <v>331</v>
-      </c>
       <c r="S59" t="s">
         <v>47</v>
       </c>
@@ -7617,9 +7346,6 @@
       <c r="AG59" t="s">
         <v>52</v>
       </c>
-      <c r="AH59" t="s">
-        <v>332</v>
-      </c>
       <c r="AI59" t="s">
         <v>80</v>
       </c>
@@ -7627,20 +7353,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>110020022471</v>
       </c>
-      <c r="B60" t="n">
-        <v>45926.1761226852</v>
-      </c>
-      <c r="C60" t="n">
-        <v>45926.1792939815</v>
-      </c>
-      <c r="D60" t="s">
-        <v>333</v>
-      </c>
-      <c r="E60" t="n">
+      <c r="B60">
+        <v>45926.176122685203</v>
+      </c>
+      <c r="C60">
+        <v>45926.179293981499</v>
+      </c>
+      <c r="E60">
         <v>273</v>
       </c>
       <c r="F60" t="s">
@@ -7655,7 +7378,7 @@
       <c r="I60" t="s">
         <v>38</v>
       </c>
-      <c r="J60" t="n">
+      <c r="J60">
         <v>270474947</v>
       </c>
       <c r="K60" t="s">
@@ -7667,21 +7390,9 @@
       <c r="M60" t="s">
         <v>40</v>
       </c>
-      <c r="N60" t="s">
-        <v>334</v>
-      </c>
-      <c r="O60" t="s">
-        <v>335</v>
-      </c>
       <c r="P60" t="s">
         <v>67</v>
       </c>
-      <c r="Q60" t="s">
-        <v>336</v>
-      </c>
-      <c r="R60" t="s">
-        <v>331</v>
-      </c>
       <c r="S60" t="s">
         <v>59</v>
       </c>
@@ -7727,9 +7438,6 @@
       <c r="AG60" t="s">
         <v>51</v>
       </c>
-      <c r="AH60" t="s">
-        <v>337</v>
-      </c>
       <c r="AI60" t="s">
         <v>80</v>
       </c>
@@ -7737,20 +7445,17 @@
         <v>193</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>110020022765</v>
       </c>
-      <c r="B61" t="n">
-        <v>45926.289224537</v>
-      </c>
-      <c r="C61" t="n">
-        <v>45926.2903009259</v>
-      </c>
-      <c r="D61" t="s">
-        <v>338</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="B61">
+        <v>45926.289224537002</v>
+      </c>
+      <c r="C61">
+        <v>45926.290300925903</v>
+      </c>
+      <c r="E61">
         <v>93</v>
       </c>
       <c r="F61" t="s">
@@ -7765,7 +7470,7 @@
       <c r="I61" t="s">
         <v>38</v>
       </c>
-      <c r="J61" t="n">
+      <c r="J61">
         <v>270474947</v>
       </c>
       <c r="K61" t="s">
@@ -7777,18 +7482,9 @@
       <c r="M61" t="s">
         <v>40</v>
       </c>
-      <c r="N61" t="s">
-        <v>339</v>
-      </c>
-      <c r="O61" t="s">
-        <v>340</v>
-      </c>
       <c r="P61" t="s">
         <v>67</v>
       </c>
-      <c r="Q61" t="s">
-        <v>341</v>
-      </c>
       <c r="R61" t="s">
         <v>69</v>
       </c>
@@ -7847,20 +7543,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>110020023127</v>
       </c>
-      <c r="B62" t="n">
-        <v>45926.3337268519</v>
-      </c>
-      <c r="C62" t="n">
-        <v>45926.3346412037</v>
-      </c>
-      <c r="D62" t="s">
-        <v>342</v>
-      </c>
-      <c r="E62" t="n">
+      <c r="B62">
+        <v>45926.333726851903</v>
+      </c>
+      <c r="C62">
+        <v>45926.334641203699</v>
+      </c>
+      <c r="E62">
         <v>79</v>
       </c>
       <c r="F62" t="s">
@@ -7875,7 +7568,7 @@
       <c r="I62" t="s">
         <v>38</v>
       </c>
-      <c r="J62" t="n">
+      <c r="J62">
         <v>270474947</v>
       </c>
       <c r="K62" t="s">
@@ -7887,12 +7580,6 @@
       <c r="M62" t="s">
         <v>40</v>
       </c>
-      <c r="N62" t="s">
-        <v>343</v>
-      </c>
-      <c r="O62" t="s">
-        <v>344</v>
-      </c>
       <c r="P62" t="s">
         <v>67</v>
       </c>
@@ -7957,20 +7644,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>110020023230</v>
       </c>
-      <c r="B63" t="n">
-        <v>45926.3390972222</v>
-      </c>
-      <c r="C63" t="n">
-        <v>45926.344849537</v>
-      </c>
-      <c r="D63" t="s">
-        <v>345</v>
-      </c>
-      <c r="E63" t="n">
+      <c r="B63">
+        <v>45926.339097222197</v>
+      </c>
+      <c r="C63">
+        <v>45926.344849537003</v>
+      </c>
+      <c r="E63">
         <v>497</v>
       </c>
       <c r="F63" t="s">
@@ -7985,7 +7669,7 @@
       <c r="I63" t="s">
         <v>38</v>
       </c>
-      <c r="J63" t="n">
+      <c r="J63">
         <v>270474947</v>
       </c>
       <c r="K63" t="s">
@@ -7997,12 +7681,6 @@
       <c r="M63" t="s">
         <v>40</v>
       </c>
-      <c r="N63" t="s">
-        <v>346</v>
-      </c>
-      <c r="O63" t="s">
-        <v>347</v>
-      </c>
       <c r="P63" t="s">
         <v>67</v>
       </c>
@@ -8067,20 +7745,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>110020023278</v>
       </c>
-      <c r="B64" t="n">
-        <v>45926.3449884259</v>
-      </c>
-      <c r="C64" t="n">
-        <v>45926.3459606481</v>
-      </c>
-      <c r="D64" t="s">
-        <v>348</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="B64">
+        <v>45926.344988425903</v>
+      </c>
+      <c r="C64">
+        <v>45926.345960648097</v>
+      </c>
+      <c r="E64">
         <v>83</v>
       </c>
       <c r="F64" t="s">
@@ -8095,7 +7770,7 @@
       <c r="I64" t="s">
         <v>38</v>
       </c>
-      <c r="J64" t="n">
+      <c r="J64">
         <v>270474947</v>
       </c>
       <c r="K64" t="s">
@@ -8107,18 +7782,9 @@
       <c r="M64" t="s">
         <v>40</v>
       </c>
-      <c r="N64" t="s">
-        <v>349</v>
-      </c>
-      <c r="O64" t="s">
-        <v>350</v>
-      </c>
       <c r="P64" t="s">
         <v>67</v>
       </c>
-      <c r="Q64" t="s">
-        <v>351</v>
-      </c>
       <c r="R64" t="s">
         <v>100</v>
       </c>
@@ -8177,20 +7843,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>110020024064</v>
       </c>
-      <c r="B65" t="n">
-        <v>45926.3984490741</v>
-      </c>
-      <c r="C65" t="n">
-        <v>45926.3993287037</v>
-      </c>
-      <c r="D65" t="s">
-        <v>352</v>
-      </c>
-      <c r="E65" t="n">
+      <c r="B65">
+        <v>45926.398449074099</v>
+      </c>
+      <c r="C65">
+        <v>45926.399328703701</v>
+      </c>
+      <c r="E65">
         <v>76</v>
       </c>
       <c r="F65" t="s">
@@ -8205,7 +7868,7 @@
       <c r="I65" t="s">
         <v>38</v>
       </c>
-      <c r="J65" t="n">
+      <c r="J65">
         <v>270474947</v>
       </c>
       <c r="K65" t="s">
@@ -8217,12 +7880,6 @@
       <c r="M65" t="s">
         <v>40</v>
       </c>
-      <c r="N65" t="s">
-        <v>353</v>
-      </c>
-      <c r="O65" t="s">
-        <v>354</v>
-      </c>
       <c r="P65" t="s">
         <v>67</v>
       </c>
@@ -8287,20 +7944,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>110020024776</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>45926.4379513889</v>
       </c>
-      <c r="C66" t="n">
-        <v>45926.4391898148</v>
-      </c>
-      <c r="D66" t="s">
-        <v>355</v>
-      </c>
-      <c r="E66" t="n">
+      <c r="C66">
+        <v>45926.439189814802</v>
+      </c>
+      <c r="E66">
         <v>107</v>
       </c>
       <c r="F66" t="s">
@@ -8315,7 +7969,7 @@
       <c r="I66" t="s">
         <v>38</v>
       </c>
-      <c r="J66" t="n">
+      <c r="J66">
         <v>270474947</v>
       </c>
       <c r="K66" t="s">
@@ -8327,12 +7981,6 @@
       <c r="M66" t="s">
         <v>40</v>
       </c>
-      <c r="N66" t="s">
-        <v>356</v>
-      </c>
-      <c r="O66" t="s">
-        <v>357</v>
-      </c>
       <c r="P66" t="s">
         <v>67</v>
       </c>
@@ -8390,27 +8038,21 @@
       <c r="AH66" t="s">
         <v>38</v>
       </c>
-      <c r="AI66" t="s">
-        <v>358</v>
-      </c>
       <c r="AJ66" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>110020024885</v>
       </c>
-      <c r="B67" t="n">
-        <v>45926.4410532407</v>
-      </c>
-      <c r="C67" t="n">
-        <v>45926.4448958333</v>
-      </c>
-      <c r="D67" t="s">
-        <v>359</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="B67">
+        <v>45926.441053240698</v>
+      </c>
+      <c r="C67">
+        <v>45926.444895833301</v>
+      </c>
+      <c r="E67">
         <v>332</v>
       </c>
       <c r="F67" t="s">
@@ -8425,7 +8067,7 @@
       <c r="I67" t="s">
         <v>38</v>
       </c>
-      <c r="J67" t="n">
+      <c r="J67">
         <v>270474947</v>
       </c>
       <c r="K67" t="s">
@@ -8437,12 +8079,6 @@
       <c r="M67" t="s">
         <v>40</v>
       </c>
-      <c r="N67" t="s">
-        <v>360</v>
-      </c>
-      <c r="O67" t="s">
-        <v>361</v>
-      </c>
       <c r="P67" t="s">
         <v>67</v>
       </c>
@@ -8470,9 +8106,6 @@
       <c r="X67" t="s">
         <v>60</v>
       </c>
-      <c r="Y67" t="s">
-        <v>259</v>
-      </c>
       <c r="Z67" t="s">
         <v>51</v>
       </c>
@@ -8500,27 +8133,21 @@
       <c r="AH67" t="s">
         <v>38</v>
       </c>
-      <c r="AI67" t="s">
-        <v>362</v>
-      </c>
       <c r="AJ67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>110020025868</v>
       </c>
-      <c r="B68" t="n">
-        <v>45926.4972106482</v>
-      </c>
-      <c r="C68" t="n">
-        <v>45926.5003935185</v>
-      </c>
-      <c r="D68" t="s">
-        <v>363</v>
-      </c>
-      <c r="E68" t="n">
+      <c r="B68">
+        <v>45926.497210648202</v>
+      </c>
+      <c r="C68">
+        <v>45926.500393518501</v>
+      </c>
+      <c r="E68">
         <v>275</v>
       </c>
       <c r="F68" t="s">
@@ -8535,7 +8162,7 @@
       <c r="I68" t="s">
         <v>38</v>
       </c>
-      <c r="J68" t="n">
+      <c r="J68">
         <v>270474947</v>
       </c>
       <c r="K68" t="s">
@@ -8547,18 +8174,9 @@
       <c r="M68" t="s">
         <v>40</v>
       </c>
-      <c r="N68" t="s">
-        <v>364</v>
-      </c>
-      <c r="O68" t="s">
-        <v>365</v>
-      </c>
       <c r="P68" t="s">
         <v>67</v>
       </c>
-      <c r="Q68" t="s">
-        <v>366</v>
-      </c>
       <c r="R68" t="s">
         <v>45</v>
       </c>
@@ -8613,24 +8231,18 @@
       <c r="AI68" t="s">
         <v>80</v>
       </c>
-      <c r="AJ68" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
+    </row>
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>110020025976</v>
       </c>
-      <c r="B69" t="n">
-        <v>45926.5061111111</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69">
+        <v>45926.506111111099</v>
+      </c>
+      <c r="C69">
         <v>45926.5075462963</v>
       </c>
-      <c r="D69" t="s">
-        <v>368</v>
-      </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>124</v>
       </c>
       <c r="F69" t="s">
@@ -8645,7 +8257,7 @@
       <c r="I69" t="s">
         <v>38</v>
       </c>
-      <c r="J69" t="n">
+      <c r="J69">
         <v>270474947</v>
       </c>
       <c r="K69" t="s">
@@ -8657,12 +8269,6 @@
       <c r="M69" t="s">
         <v>40</v>
       </c>
-      <c r="N69" t="s">
-        <v>369</v>
-      </c>
-      <c r="O69" t="s">
-        <v>370</v>
-      </c>
       <c r="P69" t="s">
         <v>43</v>
       </c>
@@ -8687,9 +8293,6 @@
       <c r="W69" t="s">
         <v>59</v>
       </c>
-      <c r="X69" t="s">
-        <v>371</v>
-      </c>
       <c r="Y69" t="s">
         <v>108</v>
       </c>
@@ -8727,20 +8330,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>110020026113</v>
       </c>
-      <c r="B70" t="n">
-        <v>45926.5097800926</v>
-      </c>
-      <c r="C70" t="n">
-        <v>45926.5138657407</v>
-      </c>
-      <c r="D70" t="s">
-        <v>372</v>
-      </c>
-      <c r="E70" t="n">
+      <c r="B70">
+        <v>45926.509780092601</v>
+      </c>
+      <c r="C70">
+        <v>45926.513865740701</v>
+      </c>
+      <c r="E70">
         <v>352</v>
       </c>
       <c r="F70" t="s">
@@ -8755,7 +8355,7 @@
       <c r="I70" t="s">
         <v>38</v>
       </c>
-      <c r="J70" t="n">
+      <c r="J70">
         <v>270474947</v>
       </c>
       <c r="K70" t="s">
@@ -8767,18 +8367,9 @@
       <c r="M70" t="s">
         <v>40</v>
       </c>
-      <c r="N70" t="s">
-        <v>373</v>
-      </c>
-      <c r="O70" t="s">
-        <v>374</v>
-      </c>
       <c r="P70" t="s">
         <v>67</v>
       </c>
-      <c r="Q70" t="s">
-        <v>375</v>
-      </c>
       <c r="R70" t="s">
         <v>116</v>
       </c>
@@ -8800,9 +8391,6 @@
       <c r="X70" t="s">
         <v>93</v>
       </c>
-      <c r="Y70" t="s">
-        <v>376</v>
-      </c>
       <c r="Z70" t="s">
         <v>51</v>
       </c>
@@ -8833,24 +8421,18 @@
       <c r="AI70" t="s">
         <v>80</v>
       </c>
-      <c r="AJ70" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
+    </row>
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A71">
         <v>110020028640</v>
       </c>
-      <c r="B71" t="n">
-        <v>45926.6354166667</v>
-      </c>
-      <c r="C71" t="n">
-        <v>45926.6361921296</v>
-      </c>
-      <c r="D71" t="s">
-        <v>378</v>
-      </c>
-      <c r="E71" t="n">
+      <c r="B71">
+        <v>45926.635416666701</v>
+      </c>
+      <c r="C71">
+        <v>45926.636192129597</v>
+      </c>
+      <c r="E71">
         <v>66</v>
       </c>
       <c r="F71" t="s">
@@ -8865,7 +8447,7 @@
       <c r="I71" t="s">
         <v>38</v>
       </c>
-      <c r="J71" t="n">
+      <c r="J71">
         <v>270474947</v>
       </c>
       <c r="K71" t="s">
@@ -8877,18 +8459,9 @@
       <c r="M71" t="s">
         <v>40</v>
       </c>
-      <c r="N71" t="s">
-        <v>379</v>
-      </c>
-      <c r="O71" t="s">
-        <v>380</v>
-      </c>
       <c r="P71" t="s">
         <v>67</v>
       </c>
-      <c r="Q71" t="s">
-        <v>381</v>
-      </c>
       <c r="R71" t="s">
         <v>85</v>
       </c>
@@ -8943,24 +8516,18 @@
       <c r="AI71" t="s">
         <v>53</v>
       </c>
-      <c r="AJ71" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
+    </row>
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A72">
         <v>110020030429</v>
       </c>
-      <c r="B72" t="n">
-        <v>45925.4188541667</v>
-      </c>
-      <c r="C72" t="n">
-        <v>45926.803287037</v>
-      </c>
-      <c r="D72" t="s">
-        <v>383</v>
-      </c>
-      <c r="E72" t="n">
+      <c r="B72">
+        <v>45925.418854166703</v>
+      </c>
+      <c r="C72">
+        <v>45926.803287037001</v>
+      </c>
+      <c r="E72">
         <v>119614</v>
       </c>
       <c r="F72" t="s">
@@ -8975,7 +8542,7 @@
       <c r="I72" t="s">
         <v>38</v>
       </c>
-      <c r="J72" t="n">
+      <c r="J72">
         <v>270474947</v>
       </c>
       <c r="K72" t="s">
@@ -8987,12 +8554,6 @@
       <c r="M72" t="s">
         <v>40</v>
       </c>
-      <c r="N72" t="s">
-        <v>384</v>
-      </c>
-      <c r="O72" t="s">
-        <v>385</v>
-      </c>
       <c r="P72" t="s">
         <v>67</v>
       </c>
@@ -9057,20 +8618,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A73">
         <v>110020032249</v>
       </c>
-      <c r="B73" t="n">
-        <v>45926.915625</v>
-      </c>
-      <c r="C73" t="n">
-        <v>45926.9172106481</v>
-      </c>
-      <c r="D73" t="s">
-        <v>386</v>
-      </c>
-      <c r="E73" t="n">
+      <c r="B73">
+        <v>45926.915625000001</v>
+      </c>
+      <c r="C73">
+        <v>45926.917210648098</v>
+      </c>
+      <c r="E73">
         <v>136</v>
       </c>
       <c r="F73" t="s">
@@ -9085,7 +8643,7 @@
       <c r="I73" t="s">
         <v>38</v>
       </c>
-      <c r="J73" t="n">
+      <c r="J73">
         <v>270474947</v>
       </c>
       <c r="K73" t="s">
@@ -9097,12 +8655,6 @@
       <c r="M73" t="s">
         <v>40</v>
       </c>
-      <c r="N73" t="s">
-        <v>387</v>
-      </c>
-      <c r="O73" t="s">
-        <v>388</v>
-      </c>
       <c r="P73" t="s">
         <v>67</v>
       </c>
@@ -9160,27 +8712,21 @@
       <c r="AH73" t="s">
         <v>38</v>
       </c>
-      <c r="AI73" t="s">
-        <v>389</v>
-      </c>
       <c r="AJ73" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A74">
         <v>110020034712</v>
       </c>
-      <c r="B74" t="n">
-        <v>45927.5898726852</v>
-      </c>
-      <c r="C74" t="n">
-        <v>45927.5906597222</v>
-      </c>
-      <c r="D74" t="s">
-        <v>390</v>
-      </c>
-      <c r="E74" t="n">
+      <c r="B74">
+        <v>45927.589872685203</v>
+      </c>
+      <c r="C74">
+        <v>45927.590659722198</v>
+      </c>
+      <c r="E74">
         <v>67</v>
       </c>
       <c r="F74" t="s">
@@ -9195,7 +8741,7 @@
       <c r="I74" t="s">
         <v>38</v>
       </c>
-      <c r="J74" t="n">
+      <c r="J74">
         <v>270474947</v>
       </c>
       <c r="K74" t="s">
@@ -9207,12 +8753,6 @@
       <c r="M74" t="s">
         <v>40</v>
       </c>
-      <c r="N74" t="s">
-        <v>391</v>
-      </c>
-      <c r="O74" t="s">
-        <v>392</v>
-      </c>
       <c r="P74" t="s">
         <v>67</v>
       </c>
@@ -9273,24 +8813,18 @@
       <c r="AI74" t="s">
         <v>80</v>
       </c>
-      <c r="AJ74" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
+    </row>
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A75">
         <v>110020036390</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>45927.9903009259</v>
       </c>
-      <c r="C75" t="n">
-        <v>45927.9950925926</v>
-      </c>
-      <c r="D75" t="s">
-        <v>393</v>
-      </c>
-      <c r="E75" t="n">
+      <c r="C75">
+        <v>45927.995092592602</v>
+      </c>
+      <c r="E75">
         <v>413</v>
       </c>
       <c r="F75" t="s">
@@ -9305,7 +8839,7 @@
       <c r="I75" t="s">
         <v>38</v>
       </c>
-      <c r="J75" t="n">
+      <c r="J75">
         <v>270474947</v>
       </c>
       <c r="K75" t="s">
@@ -9317,18 +8851,9 @@
       <c r="M75" t="s">
         <v>40</v>
       </c>
-      <c r="N75" t="s">
-        <v>394</v>
-      </c>
-      <c r="O75" t="s">
-        <v>395</v>
-      </c>
       <c r="P75" t="s">
         <v>43</v>
       </c>
-      <c r="Q75" t="s">
-        <v>278</v>
-      </c>
       <c r="R75" t="s">
         <v>100</v>
       </c>
@@ -9383,24 +8908,18 @@
       <c r="AI75" t="s">
         <v>80</v>
       </c>
-      <c r="AJ75" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
+    </row>
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A76">
         <v>110020036505</v>
       </c>
-      <c r="B76" t="n">
-        <v>45928.0586342593</v>
-      </c>
-      <c r="C76" t="n">
-        <v>45928.0600925926</v>
-      </c>
-      <c r="D76" t="s">
-        <v>397</v>
-      </c>
-      <c r="E76" t="n">
+      <c r="B76">
+        <v>45928.058634259301</v>
+      </c>
+      <c r="C76">
+        <v>45928.060092592597</v>
+      </c>
+      <c r="E76">
         <v>126</v>
       </c>
       <c r="F76" t="s">
@@ -9415,7 +8934,7 @@
       <c r="I76" t="s">
         <v>38</v>
       </c>
-      <c r="J76" t="n">
+      <c r="J76">
         <v>270474947</v>
       </c>
       <c r="K76" t="s">
@@ -9427,18 +8946,9 @@
       <c r="M76" t="s">
         <v>40</v>
       </c>
-      <c r="N76" t="s">
-        <v>398</v>
-      </c>
-      <c r="O76" t="s">
-        <v>399</v>
-      </c>
       <c r="P76" t="s">
         <v>67</v>
       </c>
-      <c r="Q76" t="s">
-        <v>400</v>
-      </c>
       <c r="R76" t="s">
         <v>69</v>
       </c>
@@ -9490,27 +9000,21 @@
       <c r="AH76" t="s">
         <v>38</v>
       </c>
-      <c r="AI76" t="s">
-        <v>401</v>
-      </c>
       <c r="AJ76" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A77">
         <v>110020036930</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>45928.3849305556</v>
       </c>
-      <c r="C77" t="n">
-        <v>45928.3858912037</v>
-      </c>
-      <c r="D77" t="s">
-        <v>402</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="C77">
+        <v>45928.385891203703</v>
+      </c>
+      <c r="E77">
         <v>83</v>
       </c>
       <c r="F77" t="s">
@@ -9525,7 +9029,7 @@
       <c r="I77" t="s">
         <v>38</v>
       </c>
-      <c r="J77" t="n">
+      <c r="J77">
         <v>270474947</v>
       </c>
       <c r="K77" t="s">
@@ -9537,18 +9041,9 @@
       <c r="M77" t="s">
         <v>40</v>
       </c>
-      <c r="N77" t="s">
-        <v>403</v>
-      </c>
-      <c r="O77" t="s">
-        <v>404</v>
-      </c>
       <c r="P77" t="s">
         <v>67</v>
       </c>
-      <c r="Q77" t="s">
-        <v>405</v>
-      </c>
       <c r="R77" t="s">
         <v>116</v>
       </c>
@@ -9570,9 +9065,6 @@
       <c r="X77" t="s">
         <v>131</v>
       </c>
-      <c r="Y77" t="s">
-        <v>314</v>
-      </c>
       <c r="Z77" t="s">
         <v>51</v>
       </c>
@@ -9607,20 +9099,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A78">
         <v>110020038736</v>
       </c>
-      <c r="B78" t="n">
-        <v>45928.7013888889</v>
-      </c>
-      <c r="C78" t="n">
-        <v>45928.7039236111</v>
-      </c>
-      <c r="D78" t="s">
-        <v>406</v>
-      </c>
-      <c r="E78" t="n">
+      <c r="B78">
+        <v>45928.701388888898</v>
+      </c>
+      <c r="C78">
+        <v>45928.703923611101</v>
+      </c>
+      <c r="E78">
         <v>219</v>
       </c>
       <c r="F78" t="s">
@@ -9635,7 +9124,7 @@
       <c r="I78" t="s">
         <v>38</v>
       </c>
-      <c r="J78" t="n">
+      <c r="J78">
         <v>270474947</v>
       </c>
       <c r="K78" t="s">
@@ -9647,12 +9136,6 @@
       <c r="M78" t="s">
         <v>40</v>
       </c>
-      <c r="N78" t="s">
-        <v>407</v>
-      </c>
-      <c r="O78" t="s">
-        <v>408</v>
-      </c>
       <c r="P78" t="s">
         <v>43</v>
       </c>
@@ -9680,9 +9163,6 @@
       <c r="X78" t="s">
         <v>197</v>
       </c>
-      <c r="Y78" t="s">
-        <v>409</v>
-      </c>
       <c r="Z78" t="s">
         <v>51</v>
       </c>
@@ -9717,20 +9197,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A79">
         <v>110020039877</v>
       </c>
-      <c r="B79" t="n">
-        <v>45928.9158333333</v>
-      </c>
-      <c r="C79" t="n">
-        <v>45928.9174884259</v>
-      </c>
-      <c r="D79" t="s">
-        <v>410</v>
-      </c>
-      <c r="E79" t="n">
+      <c r="B79">
+        <v>45928.915833333303</v>
+      </c>
+      <c r="C79">
+        <v>45928.917488425897</v>
+      </c>
+      <c r="E79">
         <v>142</v>
       </c>
       <c r="F79" t="s">
@@ -9745,7 +9222,7 @@
       <c r="I79" t="s">
         <v>38</v>
       </c>
-      <c r="J79" t="n">
+      <c r="J79">
         <v>270474947</v>
       </c>
       <c r="K79" t="s">
@@ -9757,18 +9234,9 @@
       <c r="M79" t="s">
         <v>40</v>
       </c>
-      <c r="N79" t="s">
-        <v>411</v>
-      </c>
-      <c r="O79" t="s">
-        <v>412</v>
-      </c>
       <c r="P79" t="s">
         <v>67</v>
       </c>
-      <c r="Q79" t="s">
-        <v>413</v>
-      </c>
       <c r="R79" t="s">
         <v>100</v>
       </c>
@@ -9790,9 +9258,6 @@
       <c r="X79" t="s">
         <v>131</v>
       </c>
-      <c r="Y79" t="s">
-        <v>414</v>
-      </c>
       <c r="Z79" t="s">
         <v>51</v>
       </c>
@@ -9827,20 +9292,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A80">
         <v>110020041499</v>
       </c>
-      <c r="B80" t="n">
-        <v>45929.375474537</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80">
+        <v>45929.375474537002</v>
+      </c>
+      <c r="C80">
         <v>45929.3780555556</v>
       </c>
-      <c r="D80" t="s">
-        <v>415</v>
-      </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>222</v>
       </c>
       <c r="F80" t="s">
@@ -9855,7 +9317,7 @@
       <c r="I80" t="s">
         <v>38</v>
       </c>
-      <c r="J80" t="n">
+      <c r="J80">
         <v>270474947</v>
       </c>
       <c r="K80" t="s">
@@ -9867,12 +9329,6 @@
       <c r="M80" t="s">
         <v>40</v>
       </c>
-      <c r="N80" t="s">
-        <v>416</v>
-      </c>
-      <c r="O80" t="s">
-        <v>417</v>
-      </c>
       <c r="P80" t="s">
         <v>67</v>
       </c>
@@ -9933,24 +9389,18 @@
       <c r="AI80" t="s">
         <v>80</v>
       </c>
-      <c r="AJ80" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+    </row>
+    <row r="81" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A81">
         <v>110020046585</v>
       </c>
-      <c r="B81" t="n">
-        <v>45929.5722685185</v>
-      </c>
-      <c r="C81" t="n">
-        <v>45929.5781828704</v>
-      </c>
-      <c r="D81" t="s">
-        <v>419</v>
-      </c>
-      <c r="E81" t="n">
+      <c r="B81">
+        <v>45929.572268518503</v>
+      </c>
+      <c r="C81">
+        <v>45929.578182870398</v>
+      </c>
+      <c r="E81">
         <v>511</v>
       </c>
       <c r="F81" t="s">
@@ -9965,7 +9415,7 @@
       <c r="I81" t="s">
         <v>38</v>
       </c>
-      <c r="J81" t="n">
+      <c r="J81">
         <v>270474947</v>
       </c>
       <c r="K81" t="s">
@@ -9977,18 +9427,9 @@
       <c r="M81" t="s">
         <v>40</v>
       </c>
-      <c r="N81" t="s">
-        <v>420</v>
-      </c>
-      <c r="O81" t="s">
-        <v>421</v>
-      </c>
       <c r="P81" t="s">
         <v>67</v>
       </c>
-      <c r="Q81" t="s">
-        <v>422</v>
-      </c>
       <c r="R81" t="s">
         <v>116</v>
       </c>
@@ -10047,20 +9488,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A82">
         <v>110020052770</v>
       </c>
-      <c r="B82" t="n">
-        <v>45930.411712963</v>
-      </c>
-      <c r="C82" t="n">
-        <v>45930.413912037</v>
-      </c>
-      <c r="D82" t="s">
-        <v>423</v>
-      </c>
-      <c r="E82" t="n">
+      <c r="B82">
+        <v>45930.411712963003</v>
+      </c>
+      <c r="C82">
+        <v>45930.413912037002</v>
+      </c>
+      <c r="E82">
         <v>190</v>
       </c>
       <c r="F82" t="s">
@@ -10075,7 +9513,7 @@
       <c r="I82" t="s">
         <v>38</v>
       </c>
-      <c r="J82" t="n">
+      <c r="J82">
         <v>270474947</v>
       </c>
       <c r="K82" t="s">
@@ -10087,18 +9525,9 @@
       <c r="M82" t="s">
         <v>40</v>
       </c>
-      <c r="N82" t="s">
-        <v>424</v>
-      </c>
-      <c r="O82" t="s">
-        <v>425</v>
-      </c>
       <c r="P82" t="s">
         <v>67</v>
       </c>
-      <c r="Q82" t="s">
-        <v>426</v>
-      </c>
       <c r="R82" t="s">
         <v>92</v>
       </c>
@@ -10157,20 +9586,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A83">
         <v>110020054300</v>
       </c>
-      <c r="B83" t="n">
-        <v>45930.5501851852</v>
-      </c>
-      <c r="C83" t="n">
-        <v>45930.5518634259</v>
-      </c>
-      <c r="D83" t="s">
-        <v>427</v>
-      </c>
-      <c r="E83" t="n">
+      <c r="B83">
+        <v>45930.550185185202</v>
+      </c>
+      <c r="C83">
+        <v>45930.551863425899</v>
+      </c>
+      <c r="E83">
         <v>145</v>
       </c>
       <c r="F83" t="s">
@@ -10185,7 +9611,7 @@
       <c r="I83" t="s">
         <v>38</v>
       </c>
-      <c r="J83" t="n">
+      <c r="J83">
         <v>270474947</v>
       </c>
       <c r="K83" t="s">
@@ -10197,18 +9623,9 @@
       <c r="M83" t="s">
         <v>40</v>
       </c>
-      <c r="N83" t="s">
-        <v>428</v>
-      </c>
-      <c r="O83" t="s">
-        <v>429</v>
-      </c>
       <c r="P83" t="s">
         <v>67</v>
       </c>
-      <c r="Q83" t="s">
-        <v>430</v>
-      </c>
       <c r="R83" t="s">
         <v>100</v>
       </c>
@@ -10267,20 +9684,17 @@
         <v>97</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A84">
         <v>110020056429</v>
       </c>
-      <c r="B84" t="n">
-        <v>45930.7679050926</v>
-      </c>
-      <c r="C84" t="n">
-        <v>45930.7692013889</v>
-      </c>
-      <c r="D84" t="s">
-        <v>431</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="B84">
+        <v>45930.767905092602</v>
+      </c>
+      <c r="C84">
+        <v>45930.769201388903</v>
+      </c>
+      <c r="E84">
         <v>111</v>
       </c>
       <c r="F84" t="s">
@@ -10295,7 +9709,7 @@
       <c r="I84" t="s">
         <v>38</v>
       </c>
-      <c r="J84" t="n">
+      <c r="J84">
         <v>270474947</v>
       </c>
       <c r="K84" t="s">
@@ -10307,18 +9721,9 @@
       <c r="M84" t="s">
         <v>40</v>
       </c>
-      <c r="N84" t="s">
-        <v>432</v>
-      </c>
-      <c r="O84" t="s">
-        <v>433</v>
-      </c>
       <c r="P84" t="s">
         <v>67</v>
       </c>
-      <c r="Q84" t="s">
-        <v>434</v>
-      </c>
       <c r="R84" t="s">
         <v>100</v>
       </c>
@@ -10340,9 +9745,6 @@
       <c r="X84" t="s">
         <v>146</v>
       </c>
-      <c r="Y84" t="s">
-        <v>435</v>
-      </c>
       <c r="Z84" t="s">
         <v>38</v>
       </c>
@@ -10370,27 +9772,21 @@
       <c r="AH84" t="s">
         <v>38</v>
       </c>
-      <c r="AI84" t="s">
-        <v>436</v>
-      </c>
       <c r="AJ84" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A85">
         <v>110020064415</v>
       </c>
-      <c r="B85" t="n">
-        <v>45931.5981712963</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85">
+        <v>45931.598171296297</v>
+      </c>
+      <c r="C85">
         <v>45931.5993171296</v>
       </c>
-      <c r="D85" t="s">
-        <v>437</v>
-      </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>99</v>
       </c>
       <c r="F85" t="s">
@@ -10405,7 +9801,7 @@
       <c r="I85" t="s">
         <v>38</v>
       </c>
-      <c r="J85" t="n">
+      <c r="J85">
         <v>270474947</v>
       </c>
       <c r="K85" t="s">
@@ -10417,18 +9813,9 @@
       <c r="M85" t="s">
         <v>40</v>
       </c>
-      <c r="N85" t="s">
-        <v>438</v>
-      </c>
-      <c r="O85" t="s">
-        <v>439</v>
-      </c>
       <c r="P85" t="s">
         <v>67</v>
       </c>
-      <c r="Q85" t="s">
-        <v>440</v>
-      </c>
       <c r="R85" t="s">
         <v>100</v>
       </c>
@@ -10487,20 +9874,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A86">
         <v>110020069227</v>
       </c>
-      <c r="B86" t="n">
-        <v>45932.3617013889</v>
-      </c>
-      <c r="C86" t="n">
-        <v>45932.3633333333</v>
-      </c>
-      <c r="D86" t="s">
-        <v>441</v>
-      </c>
-      <c r="E86" t="n">
+      <c r="B86">
+        <v>45932.361701388902</v>
+      </c>
+      <c r="C86">
+        <v>45932.363333333298</v>
+      </c>
+      <c r="E86">
         <v>140</v>
       </c>
       <c r="F86" t="s">
@@ -10515,7 +9899,7 @@
       <c r="I86" t="s">
         <v>38</v>
       </c>
-      <c r="J86" t="n">
+      <c r="J86">
         <v>270474947</v>
       </c>
       <c r="K86" t="s">
@@ -10527,12 +9911,6 @@
       <c r="M86" t="s">
         <v>40</v>
       </c>
-      <c r="N86" t="s">
-        <v>442</v>
-      </c>
-      <c r="O86" t="s">
-        <v>443</v>
-      </c>
       <c r="P86" t="s">
         <v>67</v>
       </c>
@@ -10560,9 +9938,6 @@
       <c r="X86" t="s">
         <v>141</v>
       </c>
-      <c r="Y86" t="s">
-        <v>444</v>
-      </c>
       <c r="Z86" t="s">
         <v>51</v>
       </c>
@@ -10590,27 +9965,21 @@
       <c r="AH86" t="s">
         <v>38</v>
       </c>
-      <c r="AI86" t="s">
-        <v>445</v>
-      </c>
       <c r="AJ86" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>110020069389</v>
       </c>
-      <c r="B87" t="n">
-        <v>45932.385625</v>
-      </c>
-      <c r="C87" t="n">
-        <v>45932.3863657407</v>
-      </c>
-      <c r="D87" t="s">
-        <v>446</v>
-      </c>
-      <c r="E87" t="n">
+      <c r="B87">
+        <v>45932.385625000003</v>
+      </c>
+      <c r="C87">
+        <v>45932.386365740698</v>
+      </c>
+      <c r="E87">
         <v>63</v>
       </c>
       <c r="F87" t="s">
@@ -10625,7 +9994,7 @@
       <c r="I87" t="s">
         <v>38</v>
       </c>
-      <c r="J87" t="n">
+      <c r="J87">
         <v>270474947</v>
       </c>
       <c r="K87" t="s">
@@ -10637,12 +10006,6 @@
       <c r="M87" t="s">
         <v>40</v>
       </c>
-      <c r="N87" t="s">
-        <v>447</v>
-      </c>
-      <c r="O87" t="s">
-        <v>448</v>
-      </c>
       <c r="P87" t="s">
         <v>67</v>
       </c>
@@ -10670,9 +10033,6 @@
       <c r="X87" t="s">
         <v>197</v>
       </c>
-      <c r="Y87" t="s">
-        <v>449</v>
-      </c>
       <c r="Z87" t="s">
         <v>51</v>
       </c>
@@ -10700,27 +10060,21 @@
       <c r="AH87" t="s">
         <v>38</v>
       </c>
-      <c r="AI87" t="s">
-        <v>362</v>
-      </c>
       <c r="AJ87" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A88">
         <v>110020069432</v>
       </c>
-      <c r="B88" t="n">
-        <v>45932.390474537</v>
-      </c>
-      <c r="C88" t="n">
-        <v>45932.3910648148</v>
-      </c>
-      <c r="D88" t="s">
-        <v>450</v>
-      </c>
-      <c r="E88" t="n">
+      <c r="B88">
+        <v>45932.390474537002</v>
+      </c>
+      <c r="C88">
+        <v>45932.391064814801</v>
+      </c>
+      <c r="E88">
         <v>50</v>
       </c>
       <c r="F88" t="s">
@@ -10735,7 +10089,7 @@
       <c r="I88" t="s">
         <v>38</v>
       </c>
-      <c r="J88" t="n">
+      <c r="J88">
         <v>270474947</v>
       </c>
       <c r="K88" t="s">
@@ -10747,12 +10101,6 @@
       <c r="M88" t="s">
         <v>40</v>
       </c>
-      <c r="N88" t="s">
-        <v>442</v>
-      </c>
-      <c r="O88" t="s">
-        <v>443</v>
-      </c>
       <c r="P88" t="s">
         <v>67</v>
       </c>
@@ -10780,9 +10128,6 @@
       <c r="X88" t="s">
         <v>141</v>
       </c>
-      <c r="Y88" t="s">
-        <v>259</v>
-      </c>
       <c r="Z88" t="s">
         <v>51</v>
       </c>
@@ -10810,27 +10155,21 @@
       <c r="AH88" t="s">
         <v>38</v>
       </c>
-      <c r="AI88" t="s">
-        <v>362</v>
-      </c>
       <c r="AJ88" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>110020070867</v>
       </c>
-      <c r="B89" t="n">
-        <v>45932.4992939815</v>
-      </c>
-      <c r="C89" t="n">
-        <v>45932.5015972222</v>
-      </c>
-      <c r="D89" t="s">
-        <v>451</v>
-      </c>
-      <c r="E89" t="n">
+      <c r="B89">
+        <v>45932.499293981498</v>
+      </c>
+      <c r="C89">
+        <v>45932.501597222203</v>
+      </c>
+      <c r="E89">
         <v>199</v>
       </c>
       <c r="F89" t="s">
@@ -10845,7 +10184,7 @@
       <c r="I89" t="s">
         <v>38</v>
       </c>
-      <c r="J89" t="n">
+      <c r="J89">
         <v>270474947</v>
       </c>
       <c r="K89" t="s">
@@ -10857,18 +10196,9 @@
       <c r="M89" t="s">
         <v>40</v>
       </c>
-      <c r="N89" t="s">
-        <v>452</v>
-      </c>
-      <c r="O89" t="s">
-        <v>453</v>
-      </c>
       <c r="P89" t="s">
         <v>43</v>
       </c>
-      <c r="Q89" t="s">
-        <v>454</v>
-      </c>
       <c r="R89" t="s">
         <v>92</v>
       </c>
@@ -10927,20 +10257,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>110020072440</v>
       </c>
-      <c r="B90" t="n">
-        <v>45932.5976388889</v>
-      </c>
-      <c r="C90" t="n">
-        <v>45932.6010069444</v>
-      </c>
-      <c r="D90" t="s">
-        <v>455</v>
-      </c>
-      <c r="E90" t="n">
+      <c r="B90">
+        <v>45932.597638888903</v>
+      </c>
+      <c r="C90">
+        <v>45932.601006944402</v>
+      </c>
+      <c r="E90">
         <v>291</v>
       </c>
       <c r="F90" t="s">
@@ -10955,7 +10282,7 @@
       <c r="I90" t="s">
         <v>38</v>
       </c>
-      <c r="J90" t="n">
+      <c r="J90">
         <v>270474947</v>
       </c>
       <c r="K90" t="s">
@@ -10967,12 +10294,6 @@
       <c r="M90" t="s">
         <v>40</v>
       </c>
-      <c r="N90" t="s">
-        <v>456</v>
-      </c>
-      <c r="O90" t="s">
-        <v>457</v>
-      </c>
       <c r="P90" t="s">
         <v>67</v>
       </c>
@@ -11000,9 +10321,6 @@
       <c r="X90" t="s">
         <v>49</v>
       </c>
-      <c r="Y90" t="s">
-        <v>458</v>
-      </c>
       <c r="Z90" t="s">
         <v>51</v>
       </c>
@@ -11037,20 +10355,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>110020079973</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>45933.552349537</v>
       </c>
-      <c r="C91" t="n">
-        <v>45933.5537962963</v>
-      </c>
-      <c r="D91" t="s">
-        <v>459</v>
-      </c>
-      <c r="E91" t="n">
+      <c r="C91">
+        <v>45933.553796296299</v>
+      </c>
+      <c r="E91">
         <v>124</v>
       </c>
       <c r="F91" t="s">
@@ -11065,7 +10380,7 @@
       <c r="I91" t="s">
         <v>38</v>
       </c>
-      <c r="J91" t="n">
+      <c r="J91">
         <v>270474947</v>
       </c>
       <c r="K91" t="s">
@@ -11077,18 +10392,9 @@
       <c r="M91" t="s">
         <v>40</v>
       </c>
-      <c r="N91" t="s">
-        <v>460</v>
-      </c>
-      <c r="O91" t="s">
-        <v>461</v>
-      </c>
       <c r="P91" t="s">
         <v>67</v>
       </c>
-      <c r="Q91" t="s">
-        <v>462</v>
-      </c>
       <c r="R91" t="s">
         <v>85</v>
       </c>
@@ -11110,9 +10416,6 @@
       <c r="X91" t="s">
         <v>161</v>
       </c>
-      <c r="Y91" t="s">
-        <v>463</v>
-      </c>
       <c r="Z91" t="s">
         <v>51</v>
       </c>
@@ -11143,24 +10446,18 @@
       <c r="AI91" t="s">
         <v>80</v>
       </c>
-      <c r="AJ91" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n">
+    </row>
+    <row r="92" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>110020083631</v>
       </c>
-      <c r="B92" t="n">
-        <v>45933.9327662037</v>
-      </c>
-      <c r="C92" t="n">
-        <v>45933.9341666667</v>
-      </c>
-      <c r="D92" t="s">
-        <v>465</v>
-      </c>
-      <c r="E92" t="n">
+      <c r="B92">
+        <v>45933.932766203703</v>
+      </c>
+      <c r="C92">
+        <v>45933.934166666702</v>
+      </c>
+      <c r="E92">
         <v>120</v>
       </c>
       <c r="F92" t="s">
@@ -11175,7 +10472,7 @@
       <c r="I92" t="s">
         <v>38</v>
       </c>
-      <c r="J92" t="n">
+      <c r="J92">
         <v>270474947</v>
       </c>
       <c r="K92" t="s">
@@ -11187,12 +10484,6 @@
       <c r="M92" t="s">
         <v>40</v>
       </c>
-      <c r="N92" t="s">
-        <v>466</v>
-      </c>
-      <c r="O92" t="s">
-        <v>467</v>
-      </c>
       <c r="P92" t="s">
         <v>67</v>
       </c>
@@ -11257,20 +10548,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>110020084108</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>45934.2050115741</v>
       </c>
-      <c r="C93" t="n">
-        <v>45934.205625</v>
-      </c>
-      <c r="D93" t="s">
-        <v>468</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="C93">
+        <v>45934.205625000002</v>
+      </c>
+      <c r="E93">
         <v>52</v>
       </c>
       <c r="F93" t="s">
@@ -11285,7 +10573,7 @@
       <c r="I93" t="s">
         <v>38</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93">
         <v>270474947</v>
       </c>
       <c r="K93" t="s">
@@ -11297,18 +10585,9 @@
       <c r="M93" t="s">
         <v>40</v>
       </c>
-      <c r="N93" t="s">
-        <v>469</v>
-      </c>
-      <c r="O93" t="s">
-        <v>470</v>
-      </c>
       <c r="P93" t="s">
         <v>43</v>
       </c>
-      <c r="Q93" t="s">
-        <v>471</v>
-      </c>
       <c r="R93" t="s">
         <v>85</v>
       </c>
@@ -11330,9 +10609,6 @@
       <c r="X93" t="s">
         <v>136</v>
       </c>
-      <c r="Y93" t="s">
-        <v>472</v>
-      </c>
       <c r="Z93" t="s">
         <v>52</v>
       </c>
@@ -11367,20 +10643,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>110020086533</v>
       </c>
-      <c r="B94" t="n">
-        <v>45934.7537384259</v>
-      </c>
-      <c r="C94" t="n">
-        <v>45934.7545023148</v>
-      </c>
-      <c r="D94" t="s">
-        <v>473</v>
-      </c>
-      <c r="E94" t="n">
+      <c r="B94">
+        <v>45934.753738425898</v>
+      </c>
+      <c r="C94">
+        <v>45934.754502314798</v>
+      </c>
+      <c r="E94">
         <v>65</v>
       </c>
       <c r="F94" t="s">
@@ -11395,7 +10668,7 @@
       <c r="I94" t="s">
         <v>38</v>
       </c>
-      <c r="J94" t="n">
+      <c r="J94">
         <v>270474947</v>
       </c>
       <c r="K94" t="s">
@@ -11407,12 +10680,6 @@
       <c r="M94" t="s">
         <v>40</v>
       </c>
-      <c r="N94" t="s">
-        <v>474</v>
-      </c>
-      <c r="O94" t="s">
-        <v>475</v>
-      </c>
       <c r="P94" t="s">
         <v>67</v>
       </c>
@@ -11440,9 +10707,6 @@
       <c r="X94" t="s">
         <v>131</v>
       </c>
-      <c r="Y94" t="s">
-        <v>371</v>
-      </c>
       <c r="Z94" t="s">
         <v>52</v>
       </c>
@@ -11466,53 +10730,47 @@
       </c>
       <c r="AG94" t="s">
         <v>52</v>
-      </c>
-      <c r="AH94" t="s">
-        <v>476</v>
       </c>
       <c r="AI94" t="s">
         <v>72</v>
       </c>
-      <c r="AJ94" t="s">
-        <v>477</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="11.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="29.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="49.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="20.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="18.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="13.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="20.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="17.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="115.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="17.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="22.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="79.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="18.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="27.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="49.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="115.6640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
+    <col min="14" max="14" width="79.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11562,11 +10820,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>110020032249</v>
       </c>
       <c r="C2" t="s">
@@ -11605,18 +10863,18 @@
       <c r="N2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>20241009</v>
       </c>
       <c r="P2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>110020014079</v>
       </c>
       <c r="C3" t="s">
@@ -11655,18 +10913,18 @@
       <c r="N3" t="s">
         <v>33</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>20241009</v>
       </c>
       <c r="P3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>110019998087</v>
       </c>
       <c r="C4" t="s">
@@ -11705,18 +10963,18 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>20241009</v>
       </c>
       <c r="P4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>110020014106</v>
       </c>
       <c r="C5" t="s">
@@ -11755,18 +11013,18 @@
       <c r="N5" t="s">
         <v>45</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>20241009</v>
       </c>
       <c r="P5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>110020046585</v>
       </c>
       <c r="C6" t="s">
@@ -11805,18 +11063,18 @@
       <c r="N6" t="s">
         <v>49</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>20241009</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>110020002838</v>
       </c>
       <c r="C7" t="s">
@@ -11855,18 +11113,18 @@
       <c r="N7" t="s">
         <v>55</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>20241009</v>
       </c>
       <c r="P7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>110020036930</v>
       </c>
       <c r="C8" t="s">
@@ -11905,18 +11163,18 @@
       <c r="N8" t="s">
         <v>59</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8">
         <v>20241009</v>
       </c>
       <c r="P8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>110019963610</v>
       </c>
       <c r="C9" t="s">
@@ -11955,18 +11213,18 @@
       <c r="N9" t="s">
         <v>63</v>
       </c>
-      <c r="O9" t="n">
+      <c r="O9">
         <v>20241009</v>
       </c>
       <c r="P9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>110020016800</v>
       </c>
       <c r="C10" t="s">
@@ -12005,18 +11263,18 @@
       <c r="N10" t="s">
         <v>63</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O10">
         <v>20241009</v>
       </c>
       <c r="P10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>110019967374</v>
       </c>
       <c r="C11" t="s">
@@ -12055,18 +11313,18 @@
       <c r="N11" t="s">
         <v>55</v>
       </c>
-      <c r="O11" t="n">
+      <c r="O11">
         <v>20241009</v>
       </c>
       <c r="P11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>110019998641</v>
       </c>
       <c r="C12" t="s">
@@ -12105,18 +11363,18 @@
       <c r="N12" t="s">
         <v>59</v>
       </c>
-      <c r="O12" t="n">
+      <c r="O12">
         <v>20241009</v>
       </c>
       <c r="P12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>110020026113</v>
       </c>
       <c r="C13" t="s">
@@ -12155,18 +11413,18 @@
       <c r="N13" t="s">
         <v>73</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O13">
         <v>20241009</v>
       </c>
       <c r="P13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>110019966053</v>
       </c>
       <c r="C14" t="s">
@@ -12205,18 +11463,18 @@
       <c r="N14" t="s">
         <v>77</v>
       </c>
-      <c r="O14" t="n">
+      <c r="O14">
         <v>20241009</v>
       </c>
       <c r="P14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>110019965438</v>
       </c>
       <c r="C15" t="s">
@@ -12255,18 +11513,18 @@
       <c r="N15" t="s">
         <v>63</v>
       </c>
-      <c r="O15" t="n">
+      <c r="O15">
         <v>20241009</v>
       </c>
       <c r="P15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>110019963602</v>
       </c>
       <c r="C16" t="s">
@@ -12305,18 +11563,18 @@
       <c r="N16" t="s">
         <v>84</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16">
         <v>20241009</v>
       </c>
       <c r="P16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>110020022419</v>
       </c>
       <c r="C17" t="s">
@@ -12355,18 +11613,18 @@
       <c r="N17" t="s">
         <v>77</v>
       </c>
-      <c r="O17" t="n">
+      <c r="O17">
         <v>20241009</v>
       </c>
       <c r="P17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>110020069389</v>
       </c>
       <c r="C18" t="s">
@@ -12405,18 +11663,18 @@
       <c r="N18" t="s">
         <v>33</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18">
         <v>20241009</v>
       </c>
       <c r="P18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>110020024776</v>
       </c>
       <c r="C19" t="s">
@@ -12455,18 +11713,18 @@
       <c r="N19" t="s">
         <v>45</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19">
         <v>20241009</v>
       </c>
       <c r="P19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>110020072440</v>
       </c>
       <c r="C20" t="s">
@@ -12505,18 +11763,18 @@
       <c r="N20" t="s">
         <v>73</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20">
         <v>20241009</v>
       </c>
       <c r="P20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>110020014482</v>
       </c>
       <c r="C21" t="s">
@@ -12555,18 +11813,18 @@
       <c r="N21" t="s">
         <v>49</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21">
         <v>20241009</v>
       </c>
       <c r="P21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>110020052770</v>
       </c>
       <c r="C22" t="s">
@@ -12605,18 +11863,18 @@
       <c r="N22" t="s">
         <v>33</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22">
         <v>20241009</v>
       </c>
       <c r="P22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>110019998319</v>
       </c>
       <c r="C23" t="s">
@@ -12655,18 +11913,18 @@
       <c r="N23" t="s">
         <v>55</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23">
         <v>20241009</v>
       </c>
       <c r="P23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>110020041499</v>
       </c>
       <c r="C24" t="s">
@@ -12705,18 +11963,18 @@
       <c r="N24" t="s">
         <v>45</v>
       </c>
-      <c r="O24" t="n">
+      <c r="O24">
         <v>20241009</v>
       </c>
       <c r="P24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>110020014501</v>
       </c>
       <c r="C25" t="s">
@@ -12755,18 +12013,18 @@
       <c r="N25" t="s">
         <v>73</v>
       </c>
-      <c r="O25" t="n">
+      <c r="O25">
         <v>20241009</v>
       </c>
       <c r="P25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>110020014296</v>
       </c>
       <c r="C26" t="s">
@@ -12805,18 +12063,18 @@
       <c r="N26" t="s">
         <v>45</v>
       </c>
-      <c r="O26" t="n">
+      <c r="O26">
         <v>20241009</v>
       </c>
       <c r="P26" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>110020038736</v>
       </c>
       <c r="C27" t="s">
@@ -12855,18 +12113,18 @@
       <c r="N27" t="s">
         <v>63</v>
       </c>
-      <c r="O27" t="n">
+      <c r="O27">
         <v>20241009</v>
       </c>
       <c r="P27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>110020024885</v>
       </c>
       <c r="C28" t="s">
@@ -12905,18 +12163,18 @@
       <c r="N28" t="s">
         <v>33</v>
       </c>
-      <c r="O28" t="n">
+      <c r="O28">
         <v>20241009</v>
       </c>
       <c r="P28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>110019965122</v>
       </c>
       <c r="C29" t="s">
@@ -12955,18 +12213,18 @@
       <c r="N29" t="s">
         <v>45</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O29">
         <v>20241009</v>
       </c>
       <c r="P29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>110020086533</v>
       </c>
       <c r="C30" t="s">
@@ -13005,18 +12263,18 @@
       <c r="N30" t="s">
         <v>63</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30">
         <v>20241009</v>
       </c>
       <c r="P30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>110019952956</v>
       </c>
       <c r="C31" t="s">
@@ -13055,18 +12313,18 @@
       <c r="N31" t="s">
         <v>49</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31">
         <v>20241009</v>
       </c>
       <c r="P31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>110019965221</v>
       </c>
       <c r="C32" t="s">
@@ -13105,18 +12363,18 @@
       <c r="N32" t="s">
         <v>27</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O32">
         <v>20241009</v>
       </c>
       <c r="P32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>110019999057</v>
       </c>
       <c r="C33" t="s">
@@ -13155,18 +12413,18 @@
       <c r="N33" t="s">
         <v>63</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33">
         <v>20241009</v>
       </c>
       <c r="P33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>110019997542</v>
       </c>
       <c r="C34" t="s">
@@ -13205,18 +12463,18 @@
       <c r="N34" t="s">
         <v>73</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34">
         <v>20241009</v>
       </c>
       <c r="P34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>110019967654</v>
       </c>
       <c r="C35" t="s">
@@ -13255,18 +12513,18 @@
       <c r="N35" t="s">
         <v>124</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35">
         <v>20241009</v>
       </c>
       <c r="P35" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>110020069432</v>
       </c>
       <c r="C36" t="s">
@@ -13305,18 +12563,18 @@
       <c r="N36" t="s">
         <v>33</v>
       </c>
-      <c r="O36" t="n">
+      <c r="O36">
         <v>20241009</v>
       </c>
       <c r="P36" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>16</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>110019964500</v>
       </c>
       <c r="C37" t="s">
@@ -13355,18 +12613,18 @@
       <c r="N37" t="s">
         <v>33</v>
       </c>
-      <c r="O37" t="n">
+      <c r="O37">
         <v>20241009</v>
       </c>
       <c r="P37" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>110020070867</v>
       </c>
       <c r="C38" t="s">
@@ -13405,18 +12663,18 @@
       <c r="N38" t="s">
         <v>27</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38">
         <v>20241009</v>
       </c>
       <c r="P38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>110019948022</v>
       </c>
       <c r="C39" t="s">
@@ -13455,18 +12713,18 @@
       <c r="N39" t="s">
         <v>59</v>
       </c>
-      <c r="O39" t="n">
+      <c r="O39">
         <v>20241009</v>
       </c>
       <c r="P39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>16</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>110019949506</v>
       </c>
       <c r="C40" t="s">
@@ -13505,18 +12763,18 @@
       <c r="N40" t="s">
         <v>63</v>
       </c>
-      <c r="O40" t="n">
+      <c r="O40">
         <v>20241009</v>
       </c>
       <c r="P40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>110020022451</v>
       </c>
       <c r="C41" t="s">
@@ -13555,18 +12813,18 @@
       <c r="N41" t="s">
         <v>63</v>
       </c>
-      <c r="O41" t="n">
+      <c r="O41">
         <v>20241009</v>
       </c>
       <c r="P41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>16</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>110020022471</v>
       </c>
       <c r="C42" t="s">
@@ -13605,18 +12863,18 @@
       <c r="N42" t="s">
         <v>49</v>
       </c>
-      <c r="O42" t="n">
+      <c r="O42">
         <v>20241009</v>
       </c>
       <c r="P42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>16</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>110019947998</v>
       </c>
       <c r="C43" t="s">
@@ -13655,18 +12913,18 @@
       <c r="N43" t="s">
         <v>33</v>
       </c>
-      <c r="O43" t="n">
+      <c r="O43">
         <v>20241009</v>
       </c>
       <c r="P43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>16</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>110020025868</v>
       </c>
       <c r="C44" t="s">
@@ -13705,18 +12963,18 @@
       <c r="N44" t="s">
         <v>33</v>
       </c>
-      <c r="O44" t="n">
+      <c r="O44">
         <v>20241009</v>
       </c>
       <c r="P44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>110019954121</v>
       </c>
       <c r="C45" t="s">
@@ -13755,18 +13013,18 @@
       <c r="N45" t="s">
         <v>149</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45">
         <v>20241009</v>
       </c>
       <c r="P45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>16</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>110020014414</v>
       </c>
       <c r="C46" t="s">
@@ -13805,18 +13063,18 @@
       <c r="N46" t="s">
         <v>41</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46">
         <v>20241009</v>
       </c>
       <c r="P46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>16</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>110020084108</v>
       </c>
       <c r="C47" t="s">
@@ -13855,18 +13113,18 @@
       <c r="N47" t="s">
         <v>45</v>
       </c>
-      <c r="O47" t="n">
+      <c r="O47">
         <v>20241009</v>
       </c>
       <c r="P47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>110019987878</v>
       </c>
       <c r="C48" t="s">
@@ -13905,18 +13163,18 @@
       <c r="N48" t="s">
         <v>149</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48">
         <v>20241009</v>
       </c>
       <c r="P48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>16</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>110020025976</v>
       </c>
       <c r="C49" t="s">
@@ -13955,18 +13213,18 @@
       <c r="N49" t="s">
         <v>59</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49">
         <v>20241009</v>
       </c>
       <c r="P49" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>16</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>110020079973</v>
       </c>
       <c r="C50" t="s">
@@ -14005,18 +13263,18 @@
       <c r="N50" t="s">
         <v>49</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50">
         <v>20241009</v>
       </c>
       <c r="P50" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>16</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>110019951512</v>
       </c>
       <c r="C51" t="s">
@@ -14055,18 +13313,18 @@
       <c r="N51" t="s">
         <v>77</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51">
         <v>20241009</v>
       </c>
       <c r="P51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>16</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>110020028640</v>
       </c>
       <c r="C52" t="s">
@@ -14105,18 +13363,18 @@
       <c r="N52" t="s">
         <v>59</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52">
         <v>20241009</v>
       </c>
       <c r="P52" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>16</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>110020014350</v>
       </c>
       <c r="C53" t="s">
@@ -14155,18 +13413,18 @@
       <c r="N53" t="s">
         <v>84</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53">
         <v>20241009</v>
       </c>
       <c r="P53" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>16</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>110020036505</v>
       </c>
       <c r="C54" t="s">
@@ -14205,18 +13463,18 @@
       <c r="N54" t="s">
         <v>27</v>
       </c>
-      <c r="O54" t="n">
+      <c r="O54">
         <v>20241009</v>
       </c>
       <c r="P54" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>110019988168</v>
       </c>
       <c r="C55" t="s">
@@ -14255,18 +13513,18 @@
       <c r="N55" t="s">
         <v>41</v>
       </c>
-      <c r="O55" t="n">
+      <c r="O55">
         <v>20241009</v>
       </c>
       <c r="P55" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>16</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>110020022765</v>
       </c>
       <c r="C56" t="s">
@@ -14305,18 +13563,18 @@
       <c r="N56" t="s">
         <v>49</v>
       </c>
-      <c r="O56" t="n">
+      <c r="O56">
         <v>20241009</v>
       </c>
       <c r="P56" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>110020014381</v>
       </c>
       <c r="C57" t="s">
@@ -14355,18 +13613,18 @@
       <c r="N57" t="s">
         <v>175</v>
       </c>
-      <c r="O57" t="n">
+      <c r="O57">
         <v>20241009</v>
       </c>
       <c r="P57" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>110019948156</v>
       </c>
       <c r="C58" t="s">
@@ -14405,18 +13663,18 @@
       <c r="N58" t="s">
         <v>55</v>
       </c>
-      <c r="O58" t="n">
+      <c r="O58">
         <v>20241009</v>
       </c>
       <c r="P58" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>16</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>110020017933</v>
       </c>
       <c r="C59" t="s">
@@ -14455,18 +13713,18 @@
       <c r="N59" t="s">
         <v>27</v>
       </c>
-      <c r="O59" t="n">
+      <c r="O59">
         <v>20241009</v>
       </c>
       <c r="P59" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>16</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>110020016517</v>
       </c>
       <c r="C60" t="s">
@@ -14505,18 +13763,18 @@
       <c r="N60" t="s">
         <v>63</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60">
         <v>20241009</v>
       </c>
       <c r="P60" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>16</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>110020054300</v>
       </c>
       <c r="C61" t="s">
@@ -14555,18 +13813,18 @@
       <c r="N61" t="s">
         <v>33</v>
       </c>
-      <c r="O61" t="n">
+      <c r="O61">
         <v>20241009</v>
       </c>
       <c r="P61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>16</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>110020034712</v>
       </c>
       <c r="C62" t="s">
@@ -14605,18 +13863,18 @@
       <c r="N62" t="s">
         <v>45</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62">
         <v>20241009</v>
       </c>
       <c r="P62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>16</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>110020014081</v>
       </c>
       <c r="C63" t="s">
@@ -14655,18 +13913,18 @@
       <c r="N63" t="s">
         <v>45</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63">
         <v>20241009</v>
       </c>
       <c r="P63" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>16</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>110020021205</v>
       </c>
       <c r="C64" t="s">
@@ -14705,18 +13963,18 @@
       <c r="N64" t="s">
         <v>63</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64">
         <v>20241009</v>
       </c>
       <c r="P64" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>110020017917</v>
       </c>
       <c r="C65" t="s">
@@ -14755,18 +14013,18 @@
       <c r="N65" t="s">
         <v>63</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65">
         <v>20241009</v>
       </c>
       <c r="P65" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>110020016867</v>
       </c>
       <c r="C66" t="s">
@@ -14805,18 +14063,18 @@
       <c r="N66" t="s">
         <v>27</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O66">
         <v>20241009</v>
       </c>
       <c r="P66" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>110020036390</v>
       </c>
       <c r="C67" t="s">
@@ -14855,18 +14113,18 @@
       <c r="N67" t="s">
         <v>49</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67">
         <v>20241009</v>
       </c>
       <c r="P67" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>110020019097</v>
       </c>
       <c r="C68" t="s">
@@ -14905,18 +14163,18 @@
       <c r="N68" t="s">
         <v>63</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O68">
         <v>20241009</v>
       </c>
       <c r="P68" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>110020016335</v>
       </c>
       <c r="C69" t="s">
@@ -14955,18 +14213,18 @@
       <c r="N69" t="s">
         <v>49</v>
       </c>
-      <c r="O69" t="n">
+      <c r="O69">
         <v>20241009</v>
       </c>
       <c r="P69" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>110020023230</v>
       </c>
       <c r="C70" t="s">
@@ -15005,18 +14263,18 @@
       <c r="N70" t="s">
         <v>45</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O70">
         <v>20241009</v>
       </c>
       <c r="P70" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>110020014060</v>
       </c>
       <c r="C71" t="s">
@@ -15055,18 +14313,18 @@
       <c r="N71" t="s">
         <v>49</v>
       </c>
-      <c r="O71" t="n">
+      <c r="O71">
         <v>20241009</v>
       </c>
       <c r="P71" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>110020030429</v>
       </c>
       <c r="C72" t="s">
@@ -15105,18 +14363,18 @@
       <c r="N72" t="s">
         <v>27</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72">
         <v>20241009</v>
       </c>
       <c r="P72" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>110020017896</v>
       </c>
       <c r="C73" t="s">
@@ -15155,18 +14413,18 @@
       <c r="N73" t="s">
         <v>27</v>
       </c>
-      <c r="O73" t="n">
+      <c r="O73">
         <v>20241009</v>
       </c>
       <c r="P73" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>110020039877</v>
       </c>
       <c r="C74" t="s">
@@ -15205,18 +14463,18 @@
       <c r="N74" t="s">
         <v>45</v>
       </c>
-      <c r="O74" t="n">
+      <c r="O74">
         <v>20241009</v>
       </c>
       <c r="P74" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>110020016570</v>
       </c>
       <c r="C75" t="s">
@@ -15255,18 +14513,18 @@
       <c r="N75" t="s">
         <v>27</v>
       </c>
-      <c r="O75" t="n">
+      <c r="O75">
         <v>20241009</v>
       </c>
       <c r="P75" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>110020016301</v>
       </c>
       <c r="C76" t="s">
@@ -15305,18 +14563,18 @@
       <c r="N76" t="s">
         <v>45</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O76">
         <v>20241009</v>
       </c>
       <c r="P76" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>110020024064</v>
       </c>
       <c r="C77" t="s">
@@ -15355,18 +14613,18 @@
       <c r="N77" t="s">
         <v>45</v>
       </c>
-      <c r="O77" t="n">
+      <c r="O77">
         <v>20241009</v>
       </c>
       <c r="P77" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>110020056429</v>
       </c>
       <c r="C78" t="s">
@@ -15405,18 +14663,18 @@
       <c r="N78" t="s">
         <v>45</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O78">
         <v>20241009</v>
       </c>
       <c r="P78" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>110020016313</v>
       </c>
       <c r="C79" t="s">
@@ -15455,18 +14713,18 @@
       <c r="N79" t="s">
         <v>33</v>
       </c>
-      <c r="O79" t="n">
+      <c r="O79">
         <v>20241009</v>
       </c>
       <c r="P79" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>110020018121</v>
       </c>
       <c r="C80" t="s">
@@ -15505,18 +14763,18 @@
       <c r="N80" t="s">
         <v>45</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O80">
         <v>20241009</v>
       </c>
       <c r="P80" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>16</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>110020014513</v>
       </c>
       <c r="C81" t="s">
@@ -15555,18 +14813,18 @@
       <c r="N81" t="s">
         <v>63</v>
       </c>
-      <c r="O81" t="n">
+      <c r="O81">
         <v>20241009</v>
       </c>
       <c r="P81" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>16</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>110020017778</v>
       </c>
       <c r="C82" t="s">
@@ -15605,18 +14863,18 @@
       <c r="N82" t="s">
         <v>33</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O82">
         <v>20241009</v>
       </c>
       <c r="P82" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>16</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>110020016839</v>
       </c>
       <c r="C83" t="s">
@@ -15655,18 +14913,18 @@
       <c r="N83" t="s">
         <v>63</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O83">
         <v>20241009</v>
       </c>
       <c r="P83" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>16</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>110020023127</v>
       </c>
       <c r="C84" t="s">
@@ -15705,18 +14963,18 @@
       <c r="N84" t="s">
         <v>49</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O84">
         <v>20241009</v>
       </c>
       <c r="P84" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>16</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>110020064415</v>
       </c>
       <c r="C85" t="s">
@@ -15755,18 +15013,18 @@
       <c r="N85" t="s">
         <v>45</v>
       </c>
-      <c r="O85" t="n">
+      <c r="O85">
         <v>20241009</v>
       </c>
       <c r="P85" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>16</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>110020023278</v>
       </c>
       <c r="C86" t="s">
@@ -15805,18 +15063,18 @@
       <c r="N86" t="s">
         <v>27</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O86">
         <v>20241009</v>
       </c>
       <c r="P86" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>16</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>110020016288</v>
       </c>
       <c r="C87" t="s">
@@ -15855,18 +15113,18 @@
       <c r="N87" t="s">
         <v>33</v>
       </c>
-      <c r="O87" t="n">
+      <c r="O87">
         <v>20241009</v>
       </c>
       <c r="P87" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>16</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>110020083631</v>
       </c>
       <c r="C88" t="s">
@@ -15905,18 +15163,18 @@
       <c r="N88" t="s">
         <v>63</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O88">
         <v>20241009</v>
       </c>
       <c r="P88" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>16</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>110020014083</v>
       </c>
       <c r="C89" t="s">
@@ -15955,7 +15213,7 @@
       <c r="N89" t="s">
         <v>27</v>
       </c>
-      <c r="O89" t="n">
+      <c r="O89">
         <v>20241009</v>
       </c>
       <c r="P89" t="s">
@@ -15964,9 +15222,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Events/ottawa.xlsx
+++ b/Events/ottawa.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jposada/Library/CloudStorage/Dropbox/I4R/AI vertical/Events/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59C0EB-3701-C749-A793-1D3AFE78DC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B5EF50-6F43-1847-B24B-3A89774BFA53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="28180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="51200" windowHeight="28180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="University of Ottawa Replicatio" sheetId="1" r:id="rId1"/>
     <sheet name="Assignments_20241009_152508" sheetId="4" r:id="rId2"/>
+    <sheet name="Dropouts" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'University of Ottawa Replicatio'!$A$1:$AJ$96</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3456" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3458" uniqueCount="691">
   <si>
     <t>Response ID</t>
   </si>
@@ -2407,8 +2408,8 @@
   <dimension ref="A1:AJ96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12984,8 +12985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -17998,4 +17999,29 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0303CD-B44D-8E46-85D3-C36C3112A483}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>